--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>3.66065769440894</v>
       </c>
       <c r="C2">
-        <v>0.9253117780787079</v>
+        <v>0.9253117780785942</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2027500290776487</v>
+        <v>0.2027500290776558</v>
       </c>
       <c r="F2">
         <v>1.627015703538603</v>
       </c>
       <c r="G2">
-        <v>0.758075146211489</v>
+        <v>0.7580751462114961</v>
       </c>
       <c r="H2">
-        <v>0.4036857516206496</v>
+        <v>0.4036857516206567</v>
       </c>
       <c r="I2">
-        <v>0.04177150476306224</v>
+        <v>0.04177150476308178</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4527424812156653</v>
+        <v>0.452742481215644</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.166515173997141</v>
+        <v>3.166515173997368</v>
       </c>
       <c r="C3">
         <v>0.8001115744761762</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1752314983474648</v>
+        <v>0.1752314983474506</v>
       </c>
       <c r="F3">
         <v>1.409843166858366</v>
@@ -468,16 +468,16 @@
         <v>0.6795786189806705</v>
       </c>
       <c r="H3">
-        <v>0.379863586494082</v>
+        <v>0.3798635864940962</v>
       </c>
       <c r="I3">
-        <v>0.04405572422367143</v>
+        <v>0.04405572422368387</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.390975609465599</v>
+        <v>0.3909756094656416</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.865928679403794</v>
+        <v>2.86592867940368</v>
       </c>
       <c r="C4">
-        <v>0.7241379408399098</v>
+        <v>0.7241379408402793</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1585206802890013</v>
+        <v>0.1585206802889587</v>
       </c>
       <c r="F4">
         <v>1.27984544730532</v>
       </c>
       <c r="G4">
-        <v>0.6345885223269434</v>
+        <v>0.6345885223269505</v>
       </c>
       <c r="H4">
-        <v>0.3674718273065523</v>
+        <v>0.3674718273065594</v>
       </c>
       <c r="I4">
-        <v>0.04576914190287873</v>
+        <v>0.04576914190286452</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.353476380106386</v>
+        <v>0.3534763801064003</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.744016261579532</v>
+        <v>2.744016261579702</v>
       </c>
       <c r="C5">
         <v>0.6933630037632383</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1517501621233848</v>
+        <v>0.1517501621233777</v>
       </c>
       <c r="F5">
-        <v>1.227611507181024</v>
+        <v>1.22761150718101</v>
       </c>
       <c r="G5">
-        <v>0.6169805442099801</v>
+        <v>0.6169805442099729</v>
       </c>
       <c r="H5">
-        <v>0.3629344937204024</v>
+        <v>0.3629344937204095</v>
       </c>
       <c r="I5">
-        <v>0.04653919827537489</v>
+        <v>0.04653919827540065</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3382841504298213</v>
+        <v>0.3382841504298355</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.723804191432805</v>
+        <v>2.723804191433089</v>
       </c>
       <c r="C6">
-        <v>0.6882628810642757</v>
+        <v>0.688262881064361</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1506280895672703</v>
+        <v>0.1506280895673058</v>
       </c>
       <c r="F6">
         <v>1.218980081192328</v>
       </c>
       <c r="G6">
-        <v>0.6140983649719232</v>
+        <v>0.6140983649719089</v>
       </c>
       <c r="H6">
         <v>0.3622106483392926</v>
       </c>
       <c r="I6">
-        <v>0.04667122981364624</v>
+        <v>0.04667122981364535</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3357663688100558</v>
+        <v>0.3357663688100629</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.864282344711455</v>
+        <v>2.864282344711341</v>
       </c>
       <c r="C7">
-        <v>0.7237222023874779</v>
+        <v>0.7237222023870231</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1584292210480882</v>
+        <v>0.1584292210481024</v>
       </c>
       <c r="F7">
         <v>1.279138128053091</v>
       </c>
       <c r="G7">
-        <v>0.6343482175905066</v>
+        <v>0.6343482175904853</v>
       </c>
       <c r="H7">
-        <v>0.3674086230954856</v>
+        <v>0.3674086230954714</v>
       </c>
       <c r="I7">
-        <v>0.04577924427114244</v>
+        <v>0.04577924427113</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.489610254489037</v>
+        <v>3.489610254489094</v>
       </c>
       <c r="C8">
-        <v>0.881929877911233</v>
+        <v>0.8819298779115741</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1932184412986047</v>
+        <v>0.1932184412985833</v>
       </c>
       <c r="F8">
-        <v>1.551376807992739</v>
+        <v>1.55137680799271</v>
       </c>
       <c r="G8">
-        <v>0.7302931690466963</v>
+        <v>0.7302931690466679</v>
       </c>
       <c r="H8">
-        <v>0.3949767355960034</v>
+        <v>0.3949767355959821</v>
       </c>
       <c r="I8">
         <v>0.04249054617958059</v>
@@ -681,31 +681,31 @@
         <v>4.744819974005566</v>
       </c>
       <c r="C9">
-        <v>1.201408831739116</v>
+        <v>1.201408831739229</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2632847449024069</v>
+        <v>0.2632847449024567</v>
       </c>
       <c r="F9">
         <v>2.116808058258812</v>
       </c>
       <c r="G9">
-        <v>0.9479285550559666</v>
+        <v>0.9479285550559524</v>
       </c>
       <c r="H9">
         <v>0.4692557005057907</v>
       </c>
       <c r="I9">
-        <v>0.03883261606046418</v>
+        <v>0.03883261606046062</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5887386612747321</v>
+        <v>0.5887386612747463</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>5.695074182051314</v>
       </c>
       <c r="C10">
-        <v>1.445083248076457</v>
+        <v>1.445083248076344</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,22 +728,22 @@
         <v>0.3164682849101652</v>
       </c>
       <c r="F10">
-        <v>2.559304405200862</v>
+        <v>2.559304405200805</v>
       </c>
       <c r="G10">
         <v>1.132153455143566</v>
       </c>
       <c r="H10">
-        <v>0.5400490394732316</v>
+        <v>0.5400490394732174</v>
       </c>
       <c r="I10">
-        <v>0.03836822745378932</v>
+        <v>0.03836822745377688</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.708423521441901</v>
+        <v>0.7084235214418868</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.136173962710586</v>
+        <v>6.136173962710529</v>
       </c>
       <c r="C11">
         <v>1.558753705614379</v>
@@ -763,25 +763,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3411825330066804</v>
+        <v>0.3411825330066875</v>
       </c>
       <c r="F11">
         <v>2.768501862800235</v>
       </c>
       <c r="G11">
-        <v>1.222902374326168</v>
+        <v>1.222902374326154</v>
       </c>
       <c r="H11">
-        <v>0.5767920070213393</v>
+        <v>0.5767920070213322</v>
       </c>
       <c r="I11">
-        <v>0.0387803634102859</v>
+        <v>0.03878036341030011</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.764121758686791</v>
+        <v>0.7641217586867697</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>6.304738575914826</v>
       </c>
       <c r="C12">
-        <v>1.602288711779636</v>
+        <v>1.602288711779693</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3506303301904907</v>
+        <v>0.3506303301904836</v>
       </c>
       <c r="F12">
-        <v>2.849050078679397</v>
+        <v>2.84905007867934</v>
       </c>
       <c r="G12">
-        <v>1.258427148102683</v>
+        <v>1.258427148102712</v>
       </c>
       <c r="H12">
-        <v>0.5914574627921709</v>
+        <v>0.5914574627921638</v>
       </c>
       <c r="I12">
         <v>0.03904023965428038</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.268362586068918</v>
+        <v>6.268362586069088</v>
       </c>
       <c r="C13">
         <v>1.592889371822253</v>
@@ -839,25 +839,25 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3485913721585092</v>
+        <v>0.3485913721585305</v>
       </c>
       <c r="F13">
         <v>2.831640085921748</v>
       </c>
       <c r="G13">
-        <v>1.250721830645062</v>
+        <v>1.250721830645048</v>
       </c>
       <c r="H13">
         <v>0.5882638325161125</v>
       </c>
       <c r="I13">
-        <v>0.03897940254434218</v>
+        <v>0.03897940254435639</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7808300795530201</v>
+        <v>0.7808300795530343</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>6.150009591890353</v>
       </c>
       <c r="C14">
-        <v>1.562324997190672</v>
+        <v>1.562324997190444</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>0.3419579365958541</v>
       </c>
       <c r="F14">
-        <v>2.77510076522799</v>
+        <v>2.775100765227961</v>
       </c>
       <c r="G14">
-        <v>1.225800759248358</v>
+        <v>1.225800759248372</v>
       </c>
       <c r="H14">
-        <v>0.577982859856597</v>
+        <v>0.5779828598566112</v>
       </c>
       <c r="I14">
-        <v>0.03879957348324048</v>
+        <v>0.03879957348325114</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.07772254432615</v>
+        <v>6.077722544326093</v>
       </c>
       <c r="C15">
-        <v>1.543670035205878</v>
+        <v>1.543670035205594</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3379068141542376</v>
+        <v>0.3379068141542803</v>
       </c>
       <c r="F15">
-        <v>2.740648135593744</v>
+        <v>2.740648135593773</v>
       </c>
       <c r="G15">
-        <v>1.210692158389449</v>
+        <v>1.210692158389463</v>
       </c>
       <c r="H15">
-        <v>0.571786540273088</v>
+        <v>0.5717865402730951</v>
       </c>
       <c r="I15">
-        <v>0.03870340269777195</v>
+        <v>0.03870340269776307</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7567360694358101</v>
+        <v>0.7567360694358314</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.666446317185944</v>
+        <v>5.666446317185773</v>
       </c>
       <c r="C16">
-        <v>1.437718362170358</v>
+        <v>1.437718362170415</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3148647995771299</v>
+        <v>0.3148647995771512</v>
       </c>
       <c r="F16">
-        <v>2.545807837250976</v>
+        <v>2.545807837251004</v>
       </c>
       <c r="G16">
-        <v>1.126375828943708</v>
+        <v>1.126375828943722</v>
       </c>
       <c r="H16">
-        <v>0.5377472820375644</v>
+        <v>0.5377472820375715</v>
       </c>
       <c r="I16">
-        <v>0.0383549964188088</v>
+        <v>0.03835499641882656</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7048116579653652</v>
+        <v>0.7048116579653509</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.416576251031074</v>
+        <v>5.416576251030847</v>
       </c>
       <c r="C17">
-        <v>1.373499684535602</v>
+        <v>1.373499684535716</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3008721726234285</v>
+        <v>0.3008721726234214</v>
       </c>
       <c r="F17">
-        <v>2.428433563071707</v>
+        <v>2.428433563071721</v>
       </c>
       <c r="G17">
         <v>1.0765370051177</v>
       </c>
       <c r="H17">
-        <v>0.5180939740061774</v>
+        <v>0.5180939740061845</v>
       </c>
       <c r="I17">
-        <v>0.03831029843844647</v>
+        <v>0.03831029843843226</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.673302483223047</v>
+        <v>0.6733024832230683</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.273670601004653</v>
+        <v>5.273670601004596</v>
       </c>
       <c r="C18">
         <v>1.336822659164909</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2928720552675301</v>
+        <v>0.2928720552675372</v>
       </c>
       <c r="F18">
-        <v>2.361653960607498</v>
+        <v>2.361653960607526</v>
       </c>
       <c r="G18">
         <v>1.048513727708482</v>
       </c>
       <c r="H18">
-        <v>0.5072104324509894</v>
+        <v>0.5072104324509823</v>
       </c>
       <c r="I18">
-        <v>0.03834229305897985</v>
+        <v>0.0383422930589763</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6552947828217057</v>
+        <v>0.6552947828217413</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.225417468717524</v>
+        <v>5.225417468717637</v>
       </c>
       <c r="C19">
-        <v>1.324446693373773</v>
+        <v>1.324446693373886</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.290171206917762</v>
+        <v>0.2901712069177407</v>
       </c>
       <c r="F19">
         <v>2.339163600893585</v>
@@ -1076,16 +1076,16 @@
         <v>1.039131351842428</v>
       </c>
       <c r="H19">
-        <v>0.5035948814829965</v>
+        <v>0.503594881482968</v>
       </c>
       <c r="I19">
-        <v>0.03836264166539216</v>
+        <v>0.03836264166537973</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6492165218453536</v>
+        <v>0.6492165218453394</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.443089428791268</v>
+        <v>5.443089428791097</v>
       </c>
       <c r="C20">
-        <v>1.380308402952892</v>
+        <v>1.380308402952608</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3023566396059678</v>
+        <v>0.3023566396059394</v>
       </c>
       <c r="F20">
-        <v>2.44085128302811</v>
+        <v>2.440851283028138</v>
       </c>
       <c r="G20">
-        <v>1.081774818197076</v>
+        <v>1.081774818197061</v>
       </c>
       <c r="H20">
         <v>0.5201419064572761</v>
       </c>
       <c r="I20">
-        <v>0.0383089891840882</v>
+        <v>0.03830898918407222</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6766444877375974</v>
+        <v>0.6766444877375832</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>6.184728957475329</v>
       </c>
       <c r="C21">
-        <v>1.571288446371739</v>
+        <v>1.571288446371852</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3439037986146616</v>
+        <v>0.3439037986146545</v>
       </c>
       <c r="F21">
-        <v>2.791669978587265</v>
+        <v>2.791669978587322</v>
       </c>
       <c r="G21">
-        <v>1.23308779246851</v>
+        <v>1.233087792468524</v>
       </c>
       <c r="H21">
-        <v>0.5809813700057163</v>
+        <v>0.5809813700057305</v>
       </c>
       <c r="I21">
-        <v>0.03884945157859931</v>
+        <v>0.03884945157858155</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7702581098677541</v>
+        <v>0.7702581098677612</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.678498463710525</v>
+        <v>6.678498463710469</v>
       </c>
       <c r="C22">
-        <v>1.699012563589747</v>
+        <v>1.699012563589861</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3715842756962928</v>
+        <v>0.3715842756962786</v>
       </c>
       <c r="F22">
-        <v>3.028809916086487</v>
+        <v>3.028809916086516</v>
       </c>
       <c r="G22">
-        <v>1.338834372568385</v>
+        <v>1.338834372568371</v>
       </c>
       <c r="H22">
         <v>0.6251816483205701</v>
       </c>
       <c r="I22">
-        <v>0.03981613532291384</v>
+        <v>0.03981613532294404</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8327179366920205</v>
+        <v>0.8327179366920063</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>6.414038775381698</v>
       </c>
       <c r="C23">
-        <v>1.630546380683654</v>
+        <v>1.630546380683313</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3567572846422209</v>
+        <v>0.3567572846422067</v>
       </c>
       <c r="F23">
         <v>2.901453878955039</v>
@@ -1228,16 +1228,16 @@
         <v>1.281708506159106</v>
       </c>
       <c r="H23">
-        <v>0.6011484636920557</v>
+        <v>0.6011484636920486</v>
       </c>
       <c r="I23">
-        <v>0.03923874167401209</v>
+        <v>0.03923874167401387</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7992519346644471</v>
+        <v>0.7992519346644755</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.43110051055487</v>
+        <v>5.431100510554813</v>
       </c>
       <c r="C24">
-        <v>1.377229430238515</v>
+        <v>1.377229430238572</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3016853747380281</v>
+        <v>0.3016853747380068</v>
       </c>
       <c r="F24">
         <v>2.435235064407934</v>
       </c>
       <c r="G24">
-        <v>1.079404853353395</v>
+        <v>1.07940485335341</v>
       </c>
       <c r="H24">
-        <v>0.5192147495960313</v>
+        <v>0.5192147495960455</v>
       </c>
       <c r="I24">
-        <v>0.03830940243951098</v>
+        <v>0.03830940243948255</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6751332357683566</v>
+        <v>0.6751332357683353</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.401155071487892</v>
+        <v>4.401155071487949</v>
       </c>
       <c r="C25">
-        <v>1.11367457548144</v>
+        <v>1.113674575481468</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2440763378763933</v>
+        <v>0.2440763378763862</v>
       </c>
       <c r="F25">
-        <v>1.959708937004208</v>
+        <v>1.95970893700418</v>
       </c>
       <c r="G25">
-        <v>0.8852861535070247</v>
+        <v>0.8852861535070389</v>
       </c>
       <c r="H25">
-        <v>0.4466228920261628</v>
+        <v>0.4466228920261557</v>
       </c>
       <c r="I25">
-        <v>0.0394740098812818</v>
+        <v>0.03947400988129068</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5455625404048092</v>
+        <v>0.5455625404048305</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>3.66065769440894</v>
       </c>
       <c r="C2">
-        <v>0.9253117780785942</v>
+        <v>0.9253117780787079</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2027500290776558</v>
+        <v>0.2027500290776487</v>
       </c>
       <c r="F2">
         <v>1.627015703538603</v>
       </c>
       <c r="G2">
-        <v>0.7580751462114961</v>
+        <v>0.758075146211489</v>
       </c>
       <c r="H2">
-        <v>0.4036857516206567</v>
+        <v>0.4036857516206496</v>
       </c>
       <c r="I2">
-        <v>0.04177150476308178</v>
+        <v>0.04177150476306224</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.452742481215644</v>
+        <v>0.4527424812156653</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.166515173997368</v>
+        <v>3.166515173997141</v>
       </c>
       <c r="C3">
         <v>0.8001115744761762</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1752314983474506</v>
+        <v>0.1752314983474648</v>
       </c>
       <c r="F3">
         <v>1.409843166858366</v>
@@ -468,16 +468,16 @@
         <v>0.6795786189806705</v>
       </c>
       <c r="H3">
-        <v>0.3798635864940962</v>
+        <v>0.379863586494082</v>
       </c>
       <c r="I3">
-        <v>0.04405572422368387</v>
+        <v>0.04405572422367143</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3909756094656416</v>
+        <v>0.390975609465599</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.86592867940368</v>
+        <v>2.865928679403794</v>
       </c>
       <c r="C4">
-        <v>0.7241379408402793</v>
+        <v>0.7241379408399098</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1585206802889587</v>
+        <v>0.1585206802890013</v>
       </c>
       <c r="F4">
         <v>1.27984544730532</v>
       </c>
       <c r="G4">
-        <v>0.6345885223269505</v>
+        <v>0.6345885223269434</v>
       </c>
       <c r="H4">
-        <v>0.3674718273065594</v>
+        <v>0.3674718273065523</v>
       </c>
       <c r="I4">
-        <v>0.04576914190286452</v>
+        <v>0.04576914190287873</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3534763801064003</v>
+        <v>0.353476380106386</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.744016261579702</v>
+        <v>2.744016261579532</v>
       </c>
       <c r="C5">
         <v>0.6933630037632383</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1517501621233777</v>
+        <v>0.1517501621233848</v>
       </c>
       <c r="F5">
-        <v>1.22761150718101</v>
+        <v>1.227611507181024</v>
       </c>
       <c r="G5">
-        <v>0.6169805442099729</v>
+        <v>0.6169805442099801</v>
       </c>
       <c r="H5">
-        <v>0.3629344937204095</v>
+        <v>0.3629344937204024</v>
       </c>
       <c r="I5">
-        <v>0.04653919827540065</v>
+        <v>0.04653919827537489</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3382841504298355</v>
+        <v>0.3382841504298213</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.723804191433089</v>
+        <v>2.723804191432805</v>
       </c>
       <c r="C6">
-        <v>0.688262881064361</v>
+        <v>0.6882628810642757</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1506280895673058</v>
+        <v>0.1506280895672703</v>
       </c>
       <c r="F6">
         <v>1.218980081192328</v>
       </c>
       <c r="G6">
-        <v>0.6140983649719089</v>
+        <v>0.6140983649719232</v>
       </c>
       <c r="H6">
         <v>0.3622106483392926</v>
       </c>
       <c r="I6">
-        <v>0.04667122981364535</v>
+        <v>0.04667122981364624</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3357663688100629</v>
+        <v>0.3357663688100558</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.864282344711341</v>
+        <v>2.864282344711455</v>
       </c>
       <c r="C7">
-        <v>0.7237222023870231</v>
+        <v>0.7237222023874779</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1584292210481024</v>
+        <v>0.1584292210480882</v>
       </c>
       <c r="F7">
         <v>1.279138128053091</v>
       </c>
       <c r="G7">
-        <v>0.6343482175904853</v>
+        <v>0.6343482175905066</v>
       </c>
       <c r="H7">
-        <v>0.3674086230954714</v>
+        <v>0.3674086230954856</v>
       </c>
       <c r="I7">
-        <v>0.04577924427113</v>
+        <v>0.04577924427114244</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.489610254489094</v>
+        <v>3.489610254489037</v>
       </c>
       <c r="C8">
-        <v>0.8819298779115741</v>
+        <v>0.881929877911233</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1932184412985833</v>
+        <v>0.1932184412986047</v>
       </c>
       <c r="F8">
-        <v>1.55137680799271</v>
+        <v>1.551376807992739</v>
       </c>
       <c r="G8">
-        <v>0.7302931690466679</v>
+        <v>0.7302931690466963</v>
       </c>
       <c r="H8">
-        <v>0.3949767355959821</v>
+        <v>0.3949767355960034</v>
       </c>
       <c r="I8">
         <v>0.04249054617958059</v>
@@ -681,31 +681,31 @@
         <v>4.744819974005566</v>
       </c>
       <c r="C9">
-        <v>1.201408831739229</v>
+        <v>1.201408831739116</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2632847449024567</v>
+        <v>0.2632847449024069</v>
       </c>
       <c r="F9">
         <v>2.116808058258812</v>
       </c>
       <c r="G9">
-        <v>0.9479285550559524</v>
+        <v>0.9479285550559666</v>
       </c>
       <c r="H9">
         <v>0.4692557005057907</v>
       </c>
       <c r="I9">
-        <v>0.03883261606046062</v>
+        <v>0.03883261606046418</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5887386612747463</v>
+        <v>0.5887386612747321</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>5.695074182051314</v>
       </c>
       <c r="C10">
-        <v>1.445083248076344</v>
+        <v>1.445083248076457</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,22 +728,22 @@
         <v>0.3164682849101652</v>
       </c>
       <c r="F10">
-        <v>2.559304405200805</v>
+        <v>2.559304405200862</v>
       </c>
       <c r="G10">
         <v>1.132153455143566</v>
       </c>
       <c r="H10">
-        <v>0.5400490394732174</v>
+        <v>0.5400490394732316</v>
       </c>
       <c r="I10">
-        <v>0.03836822745377688</v>
+        <v>0.03836822745378932</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7084235214418868</v>
+        <v>0.708423521441901</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.136173962710529</v>
+        <v>6.136173962710586</v>
       </c>
       <c r="C11">
         <v>1.558753705614379</v>
@@ -763,25 +763,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3411825330066875</v>
+        <v>0.3411825330066804</v>
       </c>
       <c r="F11">
         <v>2.768501862800235</v>
       </c>
       <c r="G11">
-        <v>1.222902374326154</v>
+        <v>1.222902374326168</v>
       </c>
       <c r="H11">
-        <v>0.5767920070213322</v>
+        <v>0.5767920070213393</v>
       </c>
       <c r="I11">
-        <v>0.03878036341030011</v>
+        <v>0.0387803634102859</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7641217586867697</v>
+        <v>0.764121758686791</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>6.304738575914826</v>
       </c>
       <c r="C12">
-        <v>1.602288711779693</v>
+        <v>1.602288711779636</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3506303301904836</v>
+        <v>0.3506303301904907</v>
       </c>
       <c r="F12">
-        <v>2.84905007867934</v>
+        <v>2.849050078679397</v>
       </c>
       <c r="G12">
-        <v>1.258427148102712</v>
+        <v>1.258427148102683</v>
       </c>
       <c r="H12">
-        <v>0.5914574627921638</v>
+        <v>0.5914574627921709</v>
       </c>
       <c r="I12">
         <v>0.03904023965428038</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.268362586069088</v>
+        <v>6.268362586068918</v>
       </c>
       <c r="C13">
         <v>1.592889371822253</v>
@@ -839,25 +839,25 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3485913721585305</v>
+        <v>0.3485913721585092</v>
       </c>
       <c r="F13">
         <v>2.831640085921748</v>
       </c>
       <c r="G13">
-        <v>1.250721830645048</v>
+        <v>1.250721830645062</v>
       </c>
       <c r="H13">
         <v>0.5882638325161125</v>
       </c>
       <c r="I13">
-        <v>0.03897940254435639</v>
+        <v>0.03897940254434218</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7808300795530343</v>
+        <v>0.7808300795530201</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>6.150009591890353</v>
       </c>
       <c r="C14">
-        <v>1.562324997190444</v>
+        <v>1.562324997190672</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>0.3419579365958541</v>
       </c>
       <c r="F14">
-        <v>2.775100765227961</v>
+        <v>2.77510076522799</v>
       </c>
       <c r="G14">
-        <v>1.225800759248372</v>
+        <v>1.225800759248358</v>
       </c>
       <c r="H14">
-        <v>0.5779828598566112</v>
+        <v>0.577982859856597</v>
       </c>
       <c r="I14">
-        <v>0.03879957348325114</v>
+        <v>0.03879957348324048</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.077722544326093</v>
+        <v>6.07772254432615</v>
       </c>
       <c r="C15">
-        <v>1.543670035205594</v>
+        <v>1.543670035205878</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3379068141542803</v>
+        <v>0.3379068141542376</v>
       </c>
       <c r="F15">
-        <v>2.740648135593773</v>
+        <v>2.740648135593744</v>
       </c>
       <c r="G15">
-        <v>1.210692158389463</v>
+        <v>1.210692158389449</v>
       </c>
       <c r="H15">
-        <v>0.5717865402730951</v>
+        <v>0.571786540273088</v>
       </c>
       <c r="I15">
-        <v>0.03870340269776307</v>
+        <v>0.03870340269777195</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7567360694358314</v>
+        <v>0.7567360694358101</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.666446317185773</v>
+        <v>5.666446317185944</v>
       </c>
       <c r="C16">
-        <v>1.437718362170415</v>
+        <v>1.437718362170358</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3148647995771512</v>
+        <v>0.3148647995771299</v>
       </c>
       <c r="F16">
-        <v>2.545807837251004</v>
+        <v>2.545807837250976</v>
       </c>
       <c r="G16">
-        <v>1.126375828943722</v>
+        <v>1.126375828943708</v>
       </c>
       <c r="H16">
-        <v>0.5377472820375715</v>
+        <v>0.5377472820375644</v>
       </c>
       <c r="I16">
-        <v>0.03835499641882656</v>
+        <v>0.0383549964188088</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7048116579653509</v>
+        <v>0.7048116579653652</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.416576251030847</v>
+        <v>5.416576251031074</v>
       </c>
       <c r="C17">
-        <v>1.373499684535716</v>
+        <v>1.373499684535602</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3008721726234214</v>
+        <v>0.3008721726234285</v>
       </c>
       <c r="F17">
-        <v>2.428433563071721</v>
+        <v>2.428433563071707</v>
       </c>
       <c r="G17">
         <v>1.0765370051177</v>
       </c>
       <c r="H17">
-        <v>0.5180939740061845</v>
+        <v>0.5180939740061774</v>
       </c>
       <c r="I17">
-        <v>0.03831029843843226</v>
+        <v>0.03831029843844647</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6733024832230683</v>
+        <v>0.673302483223047</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.273670601004596</v>
+        <v>5.273670601004653</v>
       </c>
       <c r="C18">
         <v>1.336822659164909</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2928720552675372</v>
+        <v>0.2928720552675301</v>
       </c>
       <c r="F18">
-        <v>2.361653960607526</v>
+        <v>2.361653960607498</v>
       </c>
       <c r="G18">
         <v>1.048513727708482</v>
       </c>
       <c r="H18">
-        <v>0.5072104324509823</v>
+        <v>0.5072104324509894</v>
       </c>
       <c r="I18">
-        <v>0.0383422930589763</v>
+        <v>0.03834229305897985</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6552947828217413</v>
+        <v>0.6552947828217057</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.225417468717637</v>
+        <v>5.225417468717524</v>
       </c>
       <c r="C19">
-        <v>1.324446693373886</v>
+        <v>1.324446693373773</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2901712069177407</v>
+        <v>0.290171206917762</v>
       </c>
       <c r="F19">
         <v>2.339163600893585</v>
@@ -1076,16 +1076,16 @@
         <v>1.039131351842428</v>
       </c>
       <c r="H19">
-        <v>0.503594881482968</v>
+        <v>0.5035948814829965</v>
       </c>
       <c r="I19">
-        <v>0.03836264166537973</v>
+        <v>0.03836264166539216</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6492165218453394</v>
+        <v>0.6492165218453536</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.443089428791097</v>
+        <v>5.443089428791268</v>
       </c>
       <c r="C20">
-        <v>1.380308402952608</v>
+        <v>1.380308402952892</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3023566396059394</v>
+        <v>0.3023566396059678</v>
       </c>
       <c r="F20">
-        <v>2.440851283028138</v>
+        <v>2.44085128302811</v>
       </c>
       <c r="G20">
-        <v>1.081774818197061</v>
+        <v>1.081774818197076</v>
       </c>
       <c r="H20">
         <v>0.5201419064572761</v>
       </c>
       <c r="I20">
-        <v>0.03830898918407222</v>
+        <v>0.0383089891840882</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6766444877375832</v>
+        <v>0.6766444877375974</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>6.184728957475329</v>
       </c>
       <c r="C21">
-        <v>1.571288446371852</v>
+        <v>1.571288446371739</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3439037986146545</v>
+        <v>0.3439037986146616</v>
       </c>
       <c r="F21">
-        <v>2.791669978587322</v>
+        <v>2.791669978587265</v>
       </c>
       <c r="G21">
-        <v>1.233087792468524</v>
+        <v>1.23308779246851</v>
       </c>
       <c r="H21">
-        <v>0.5809813700057305</v>
+        <v>0.5809813700057163</v>
       </c>
       <c r="I21">
-        <v>0.03884945157858155</v>
+        <v>0.03884945157859931</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7702581098677612</v>
+        <v>0.7702581098677541</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.678498463710469</v>
+        <v>6.678498463710525</v>
       </c>
       <c r="C22">
-        <v>1.699012563589861</v>
+        <v>1.699012563589747</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3715842756962786</v>
+        <v>0.3715842756962928</v>
       </c>
       <c r="F22">
-        <v>3.028809916086516</v>
+        <v>3.028809916086487</v>
       </c>
       <c r="G22">
-        <v>1.338834372568371</v>
+        <v>1.338834372568385</v>
       </c>
       <c r="H22">
         <v>0.6251816483205701</v>
       </c>
       <c r="I22">
-        <v>0.03981613532294404</v>
+        <v>0.03981613532291384</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8327179366920063</v>
+        <v>0.8327179366920205</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>6.414038775381698</v>
       </c>
       <c r="C23">
-        <v>1.630546380683313</v>
+        <v>1.630546380683654</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3567572846422067</v>
+        <v>0.3567572846422209</v>
       </c>
       <c r="F23">
         <v>2.901453878955039</v>
@@ -1228,16 +1228,16 @@
         <v>1.281708506159106</v>
       </c>
       <c r="H23">
-        <v>0.6011484636920486</v>
+        <v>0.6011484636920557</v>
       </c>
       <c r="I23">
-        <v>0.03923874167401387</v>
+        <v>0.03923874167401209</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7992519346644755</v>
+        <v>0.7992519346644471</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.431100510554813</v>
+        <v>5.43110051055487</v>
       </c>
       <c r="C24">
-        <v>1.377229430238572</v>
+        <v>1.377229430238515</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3016853747380068</v>
+        <v>0.3016853747380281</v>
       </c>
       <c r="F24">
         <v>2.435235064407934</v>
       </c>
       <c r="G24">
-        <v>1.07940485335341</v>
+        <v>1.079404853353395</v>
       </c>
       <c r="H24">
-        <v>0.5192147495960455</v>
+        <v>0.5192147495960313</v>
       </c>
       <c r="I24">
-        <v>0.03830940243948255</v>
+        <v>0.03830940243951098</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6751332357683353</v>
+        <v>0.6751332357683566</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.401155071487949</v>
+        <v>4.401155071487892</v>
       </c>
       <c r="C25">
-        <v>1.113674575481468</v>
+        <v>1.11367457548144</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2440763378763862</v>
+        <v>0.2440763378763933</v>
       </c>
       <c r="F25">
-        <v>1.95970893700418</v>
+        <v>1.959708937004208</v>
       </c>
       <c r="G25">
-        <v>0.8852861535070389</v>
+        <v>0.8852861535070247</v>
       </c>
       <c r="H25">
-        <v>0.4466228920261557</v>
+        <v>0.4466228920261628</v>
       </c>
       <c r="I25">
-        <v>0.03947400988129068</v>
+        <v>0.0394740098812818</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5455625404048305</v>
+        <v>0.5455625404048092</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.66065769440894</v>
+        <v>3.660522607751091</v>
       </c>
       <c r="C2">
-        <v>0.9253117780787079</v>
+        <v>0.9247689628147668</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2027500290776487</v>
+        <v>0.2029572808395841</v>
       </c>
       <c r="F2">
-        <v>1.627015703538603</v>
+        <v>1.626080646576668</v>
       </c>
       <c r="G2">
-        <v>0.758075146211489</v>
+        <v>0.2427621832729798</v>
       </c>
       <c r="H2">
-        <v>0.4036857516206496</v>
+        <v>0.5177256597427444</v>
       </c>
       <c r="I2">
-        <v>0.04177150476306224</v>
+        <v>0.4026902519632287</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04165811005356801</v>
       </c>
       <c r="K2">
-        <v>0.4527424812156653</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4529061382909134</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.166515173997141</v>
+        <v>3.166437230186375</v>
       </c>
       <c r="C3">
-        <v>0.8001115744761762</v>
+        <v>0.7996563610921328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1752314983474648</v>
+        <v>0.1754131837706723</v>
       </c>
       <c r="F3">
-        <v>1.409843166858366</v>
+        <v>1.409027871378427</v>
       </c>
       <c r="G3">
-        <v>0.6795786189806705</v>
+        <v>0.2136154562512189</v>
       </c>
       <c r="H3">
-        <v>0.379863586494082</v>
+        <v>0.4686578225245484</v>
       </c>
       <c r="I3">
-        <v>0.04405572422367143</v>
+        <v>0.3789735915105297</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04395164466807699</v>
       </c>
       <c r="K3">
-        <v>0.390975609465599</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3911212309364274</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.865928679403794</v>
+        <v>2.865880485710875</v>
       </c>
       <c r="C4">
-        <v>0.7241379408399098</v>
+        <v>0.7237344073967051</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1585206802890013</v>
+        <v>0.1586867419495448</v>
       </c>
       <c r="F4">
-        <v>1.27984544730532</v>
+        <v>1.279101425912756</v>
       </c>
       <c r="G4">
-        <v>0.6345885223269434</v>
+        <v>0.1967491451017196</v>
       </c>
       <c r="H4">
-        <v>0.3674718273065523</v>
+        <v>0.4407008965404202</v>
       </c>
       <c r="I4">
-        <v>0.04576914190287873</v>
+        <v>0.3666441536218628</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04567018967252068</v>
       </c>
       <c r="K4">
-        <v>0.353476380106386</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3536106081413735</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.744016261579532</v>
+        <v>2.743979034016718</v>
       </c>
       <c r="C5">
-        <v>0.6933630037632383</v>
+        <v>0.692980085105404</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1517501621233848</v>
+        <v>0.151909871559603</v>
       </c>
       <c r="F5">
-        <v>1.227611507181024</v>
+        <v>1.226896057474477</v>
       </c>
       <c r="G5">
-        <v>0.6169805442099801</v>
+        <v>0.1901075021758842</v>
       </c>
       <c r="H5">
-        <v>0.3629344937204024</v>
+        <v>0.429801200760501</v>
       </c>
       <c r="I5">
-        <v>0.04653919827537489</v>
+        <v>0.362131681919621</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04644220392701559</v>
       </c>
       <c r="K5">
-        <v>0.3382841504298213</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3384136650204255</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.723804191432805</v>
+        <v>2.723768719893883</v>
       </c>
       <c r="C6">
-        <v>0.6882628810642757</v>
+        <v>0.6878833608942045</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1506280895672703</v>
+        <v>0.1507867449873146</v>
       </c>
       <c r="F6">
-        <v>1.218980081192328</v>
+        <v>1.218269349788628</v>
       </c>
       <c r="G6">
-        <v>0.6140983649719232</v>
+        <v>0.1890178864144261</v>
       </c>
       <c r="H6">
-        <v>0.3622106483392926</v>
+        <v>0.4280196267114036</v>
       </c>
       <c r="I6">
-        <v>0.04667122981364624</v>
+        <v>0.3614119348241474</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04657455309587366</v>
       </c>
       <c r="K6">
-        <v>0.3357663688100558</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3358950967378291</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.864282344711455</v>
+        <v>2.86423430336896</v>
       </c>
       <c r="C7">
-        <v>0.7237222023874779</v>
+        <v>0.7233189486595677</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1584292210480882</v>
+        <v>0.1585951969865391</v>
       </c>
       <c r="F7">
-        <v>1.279138128053091</v>
+        <v>1.27839449378618</v>
       </c>
       <c r="G7">
-        <v>0.6343482175905066</v>
+        <v>0.1966586707889419</v>
       </c>
       <c r="H7">
-        <v>0.3674086230954856</v>
+        <v>0.4405519700614349</v>
       </c>
       <c r="I7">
-        <v>0.04577924427114244</v>
+        <v>0.36658128676725</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04568031895653046</v>
       </c>
       <c r="K7">
-        <v>0.3532711547636822</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3534053195051001</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.489610254489037</v>
+        <v>3.489496095966047</v>
       </c>
       <c r="C8">
-        <v>0.881929877911233</v>
+        <v>0.881417759403945</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1932184412986047</v>
+        <v>0.1934168599287815</v>
       </c>
       <c r="F8">
-        <v>1.551376807992739</v>
+        <v>1.550483574913116</v>
       </c>
       <c r="G8">
-        <v>0.7302931690466963</v>
+        <v>0.2324813485203379</v>
       </c>
       <c r="H8">
-        <v>0.3949767355960034</v>
+        <v>0.5003231777920334</v>
       </c>
       <c r="I8">
-        <v>0.04249054617958059</v>
+        <v>0.3940181778262541</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04238049735828398</v>
       </c>
       <c r="K8">
-        <v>0.4313454775926218</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4315029886712125</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.744819974005566</v>
+        <v>4.744524227602312</v>
       </c>
       <c r="C9">
-        <v>1.201408831739116</v>
+        <v>1.200662106052789</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2632847449024069</v>
+        <v>0.2635475623692898</v>
       </c>
       <c r="F9">
-        <v>2.116808058258812</v>
+        <v>2.115598522289133</v>
       </c>
       <c r="G9">
-        <v>0.9479285550559666</v>
+        <v>0.3122779557019584</v>
       </c>
       <c r="H9">
-        <v>0.4692557005057907</v>
+        <v>0.6374125659334453</v>
       </c>
       <c r="I9">
-        <v>0.03883261606046418</v>
+        <v>0.468015946883952</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03869514888550896</v>
       </c>
       <c r="K9">
-        <v>0.5887386612747321</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5889388894025913</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.695074182051314</v>
+        <v>5.69459756660649</v>
       </c>
       <c r="C10">
-        <v>1.445083248076457</v>
+        <v>1.444144078317606</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3164682849101652</v>
+        <v>0.3167791655447658</v>
       </c>
       <c r="F10">
-        <v>2.559304405200862</v>
+        <v>2.557840158506025</v>
       </c>
       <c r="G10">
-        <v>1.132153455143566</v>
+        <v>0.3788892384786635</v>
       </c>
       <c r="H10">
-        <v>0.5400490394732316</v>
+        <v>0.7544202799345356</v>
       </c>
       <c r="I10">
-        <v>0.03836822745378932</v>
+        <v>0.5385809683325178</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03820570268731238</v>
       </c>
       <c r="K10">
-        <v>0.708423521441901</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.7086523523756938</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.136173962710586</v>
+        <v>6.135600357852809</v>
       </c>
       <c r="C11">
-        <v>1.558753705614379</v>
+        <v>1.557720640163438</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3411825330066804</v>
+        <v>0.3415155019816254</v>
       </c>
       <c r="F11">
-        <v>2.768501862800235</v>
+        <v>2.766914545070819</v>
       </c>
       <c r="G11">
-        <v>1.222902374326168</v>
+        <v>0.4114907393547611</v>
       </c>
       <c r="H11">
-        <v>0.5767920070213393</v>
+        <v>0.8122751083210744</v>
       </c>
       <c r="I11">
-        <v>0.0387803634102859</v>
+        <v>0.5752133617511035</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03860495420917154</v>
       </c>
       <c r="K11">
-        <v>0.764121758686791</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.7643627273646914</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.304738575914826</v>
+        <v>6.304125671923487</v>
       </c>
       <c r="C12">
-        <v>1.602288711779636</v>
+        <v>1.601218972924755</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3506303301904907</v>
+        <v>0.3509717004607893</v>
       </c>
       <c r="F12">
-        <v>2.849050078679397</v>
+        <v>2.847414876503365</v>
       </c>
       <c r="G12">
-        <v>1.258427148102683</v>
+        <v>0.4242219096059898</v>
       </c>
       <c r="H12">
-        <v>0.5914574627921709</v>
+        <v>0.8349549770855447</v>
       </c>
       <c r="I12">
-        <v>0.03904023965428038</v>
+        <v>0.589835775883337</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03885969439979675</v>
       </c>
       <c r="K12">
-        <v>0.7854292440020103</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.7856746537705135</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.268362586068918</v>
+        <v>6.267758268428224</v>
       </c>
       <c r="C13">
-        <v>1.592889371822253</v>
+        <v>1.591827584584109</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3485913721585092</v>
+        <v>0.348930931345528</v>
       </c>
       <c r="F13">
-        <v>2.831640085921748</v>
+        <v>2.830015257876852</v>
       </c>
       <c r="G13">
-        <v>1.250721830645062</v>
+        <v>0.4214619092871601</v>
       </c>
       <c r="H13">
-        <v>0.5882638325161125</v>
+        <v>0.8300342942818588</v>
       </c>
       <c r="I13">
-        <v>0.03897940254434218</v>
+        <v>0.5866514710930346</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03879997564371607</v>
       </c>
       <c r="K13">
-        <v>0.7808300795530201</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.7810745403015886</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.150009591890353</v>
+        <v>6.149432808330573</v>
       </c>
       <c r="C14">
-        <v>1.562324997190672</v>
+        <v>1.561288938289579</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3419579365958541</v>
+        <v>0.3422915959844701</v>
       </c>
       <c r="F14">
-        <v>2.77510076522799</v>
+        <v>2.773509535247968</v>
       </c>
       <c r="G14">
-        <v>1.225800759248358</v>
+        <v>0.4125300672358918</v>
       </c>
       <c r="H14">
-        <v>0.577982859856597</v>
+        <v>0.8141248703703496</v>
       </c>
       <c r="I14">
-        <v>0.03879957348324048</v>
+        <v>0.5764006982770269</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03862374716541694</v>
       </c>
       <c r="K14">
-        <v>0.7658701925224349</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.7661115298761132</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.07772254432615</v>
+        <v>6.077162276287709</v>
       </c>
       <c r="C15">
-        <v>1.543670035205878</v>
+        <v>1.542649583473235</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3379068141542376</v>
+        <v>0.3382368646893568</v>
       </c>
       <c r="F15">
-        <v>2.740648135593744</v>
+        <v>2.739077310599271</v>
       </c>
       <c r="G15">
-        <v>1.210692158389449</v>
+        <v>0.4071110512882257</v>
       </c>
       <c r="H15">
-        <v>0.571786540273088</v>
+        <v>0.8044837697912044</v>
       </c>
       <c r="I15">
-        <v>0.03870340269777195</v>
+        <v>0.5702227179173747</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03852974694041578</v>
       </c>
       <c r="K15">
-        <v>0.7567360694358101</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.7569754724130178</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.666446317185944</v>
+        <v>5.665975707170389</v>
       </c>
       <c r="C16">
-        <v>1.437718362170358</v>
+        <v>1.436785184321536</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3148647995771299</v>
+        <v>0.3151742416025698</v>
       </c>
       <c r="F16">
-        <v>2.545807837250976</v>
+        <v>2.544351468794702</v>
       </c>
       <c r="G16">
-        <v>1.126375828943708</v>
+        <v>0.376809455386379</v>
       </c>
       <c r="H16">
-        <v>0.5377472820375644</v>
+        <v>0.7507411762912</v>
       </c>
       <c r="I16">
-        <v>0.0383549964188088</v>
+        <v>0.5362862855005091</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03819328026571789</v>
       </c>
       <c r="K16">
-        <v>0.7048116579653652</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.7050396757096564</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.416576251031074</v>
+        <v>5.416156577255322</v>
       </c>
       <c r="C17">
-        <v>1.373499684535602</v>
+        <v>1.372618285873045</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3008721726234285</v>
+        <v>0.3011690327996064</v>
       </c>
       <c r="F17">
-        <v>2.428433563071707</v>
+        <v>2.427045406001071</v>
       </c>
       <c r="G17">
-        <v>1.0765370051177</v>
+        <v>0.3588461664171376</v>
       </c>
       <c r="H17">
-        <v>0.5180939740061774</v>
+        <v>0.7190279178217764</v>
       </c>
       <c r="I17">
-        <v>0.03831029843844647</v>
+        <v>0.5166942048964245</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03815549800981444</v>
       </c>
       <c r="K17">
-        <v>0.673302483223047</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.6735232736888364</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.273670601004653</v>
+        <v>5.273278871564969</v>
       </c>
       <c r="C18">
-        <v>1.336822659164909</v>
+        <v>1.335970458817485</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2928720552675301</v>
+        <v>0.2931616995215762</v>
       </c>
       <c r="F18">
-        <v>2.361653960607498</v>
+        <v>2.360304376207765</v>
       </c>
       <c r="G18">
-        <v>1.048513727708482</v>
+        <v>0.3487269013142367</v>
       </c>
       <c r="H18">
-        <v>0.5072104324509894</v>
+        <v>0.7012156804913445</v>
       </c>
       <c r="I18">
-        <v>0.03834229305897985</v>
+        <v>0.5058452622925884</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03819133357307436</v>
       </c>
       <c r="K18">
-        <v>0.6552947828217057</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.6555113362178062</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.225417468717524</v>
+        <v>5.225034980924306</v>
       </c>
       <c r="C19">
-        <v>1.324446693373773</v>
+        <v>1.32360428444133</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.290171206917762</v>
+        <v>0.2904584114155</v>
       </c>
       <c r="F19">
-        <v>2.339163600893585</v>
+        <v>2.337826969751845</v>
       </c>
       <c r="G19">
-        <v>1.039131351842428</v>
+        <v>0.3453356789180759</v>
       </c>
       <c r="H19">
-        <v>0.5035948814829965</v>
+        <v>0.6952553459834405</v>
       </c>
       <c r="I19">
-        <v>0.03836264166539216</v>
+        <v>0.5022413255169695</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03821296035143185</v>
       </c>
       <c r="K19">
-        <v>0.6492165218453536</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.6494316276749501</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.443089428791268</v>
+        <v>5.442664475810432</v>
       </c>
       <c r="C20">
-        <v>1.380308402952892</v>
+        <v>1.379421554076714</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3023566396059678</v>
+        <v>0.3026548369515822</v>
       </c>
       <c r="F20">
-        <v>2.44085128302811</v>
+        <v>2.439455934740636</v>
       </c>
       <c r="G20">
-        <v>1.081774818197076</v>
+        <v>0.360735997202184</v>
       </c>
       <c r="H20">
-        <v>0.5201419064572761</v>
+        <v>0.7223587905297535</v>
       </c>
       <c r="I20">
-        <v>0.0383089891840882</v>
+        <v>0.5187356848480889</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03815346701093958</v>
       </c>
       <c r="K20">
-        <v>0.6766444877375974</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6768660560456965</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.184728957475329</v>
+        <v>6.184144160348808</v>
       </c>
       <c r="C21">
-        <v>1.571288446371739</v>
+        <v>1.570244862567847</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3439037986146616</v>
+        <v>0.3442391898788983</v>
       </c>
       <c r="F21">
-        <v>2.791669978587265</v>
+        <v>2.790068916976821</v>
       </c>
       <c r="G21">
-        <v>1.23308779246851</v>
+        <v>0.4151426204232678</v>
       </c>
       <c r="H21">
-        <v>0.5809813700057163</v>
+        <v>0.8187759937383561</v>
       </c>
       <c r="I21">
-        <v>0.03884945157859931</v>
+        <v>0.5793903715680671</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0386725750452932</v>
       </c>
       <c r="K21">
-        <v>0.7702581098677541</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.7705003691204908</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.678498463710525</v>
+        <v>6.677793931656424</v>
       </c>
       <c r="C22">
-        <v>1.699012563589747</v>
+        <v>1.697859908941155</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3715842756962928</v>
+        <v>0.3719441924938209</v>
       </c>
       <c r="F22">
-        <v>3.028809916086487</v>
+        <v>3.027066796077577</v>
       </c>
       <c r="G22">
-        <v>1.338834372568385</v>
+        <v>0.452980128413671</v>
       </c>
       <c r="H22">
-        <v>0.6251816483205701</v>
+        <v>0.8863479601476882</v>
       </c>
       <c r="I22">
-        <v>0.03981613532291384</v>
+        <v>0.6234629451289919</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03962377780641546</v>
       </c>
       <c r="K22">
-        <v>0.8327179366920205</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.8329727949268744</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.414038775381698</v>
+        <v>6.413399719960523</v>
       </c>
       <c r="C23">
-        <v>1.630546380683654</v>
+        <v>1.629452624118244</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3567572846422209</v>
+        <v>0.3571040903555485</v>
       </c>
       <c r="F23">
-        <v>2.901453878955039</v>
+        <v>2.899787369009147</v>
       </c>
       <c r="G23">
-        <v>1.281708506159106</v>
+        <v>0.4325566304743944</v>
       </c>
       <c r="H23">
-        <v>0.6011484636920557</v>
+        <v>0.8498272937534495</v>
       </c>
       <c r="I23">
-        <v>0.03923874167401209</v>
+        <v>0.599498632436962</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03905480282130469</v>
       </c>
       <c r="K23">
-        <v>0.7992519346644471</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.7995001647706488</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.43110051055487</v>
+        <v>5.430677948442053</v>
       </c>
       <c r="C24">
-        <v>1.377229430238515</v>
+        <v>1.376345047165103</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3016853747380281</v>
+        <v>0.30198296749505</v>
       </c>
       <c r="F24">
-        <v>2.435235064407934</v>
+        <v>2.433842969254414</v>
       </c>
       <c r="G24">
-        <v>1.079404853353395</v>
+        <v>0.3598809606677378</v>
       </c>
       <c r="H24">
-        <v>0.5192147495960313</v>
+        <v>0.7208516021620284</v>
       </c>
       <c r="I24">
-        <v>0.03830940243951098</v>
+        <v>0.5178114470204065</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03815420698437322</v>
       </c>
       <c r="K24">
-        <v>0.6751332357683566</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.675354452667257</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.401155071487892</v>
+        <v>4.400915485234691</v>
       </c>
       <c r="C25">
-        <v>1.11367457548144</v>
+        <v>1.112994254187498</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2440763378763933</v>
+        <v>0.2443216224396565</v>
       </c>
       <c r="F25">
-        <v>1.959708937004208</v>
+        <v>1.958588200767196</v>
       </c>
       <c r="G25">
-        <v>0.8852861535070247</v>
+        <v>0.2894610102004123</v>
       </c>
       <c r="H25">
-        <v>0.4466228920261628</v>
+        <v>0.5977980811002084</v>
       </c>
       <c r="I25">
-        <v>0.0394740098812818</v>
+        <v>0.4454624362319066</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03934469983175859</v>
       </c>
       <c r="K25">
-        <v>0.5455625404048092</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.5457516236098741</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.660522607751091</v>
+        <v>3.715103624809558</v>
       </c>
       <c r="C2">
-        <v>0.9247689628147668</v>
+        <v>0.525822808535537</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2029572808395841</v>
+        <v>0.01456649940469235</v>
       </c>
       <c r="F2">
-        <v>1.626080646576668</v>
+        <v>2.650100011702804</v>
       </c>
       <c r="G2">
-        <v>0.2427621832729798</v>
+        <v>0.0008250450927174136</v>
       </c>
       <c r="H2">
-        <v>0.5177256597427444</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4026902519632287</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04165811005356801</v>
+        <v>0.105536244359584</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9013389915533168</v>
       </c>
       <c r="L2">
-        <v>0.4529061382909134</v>
+        <v>0.2198260704628581</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.649003030690125</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.166437230186375</v>
+        <v>3.26057468319658</v>
       </c>
       <c r="C3">
-        <v>0.7996563610921328</v>
+        <v>0.4514958967798748</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1754131837706723</v>
+        <v>0.01410223893621909</v>
       </c>
       <c r="F3">
-        <v>1.409027871378427</v>
+        <v>2.455703835850883</v>
       </c>
       <c r="G3">
-        <v>0.2136154562512189</v>
+        <v>0.0008346089478210191</v>
       </c>
       <c r="H3">
-        <v>0.4686578225245484</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3789735915105297</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04395164466807699</v>
+        <v>0.1068044392742422</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7856047836384334</v>
       </c>
       <c r="L3">
-        <v>0.3911212309364274</v>
+        <v>0.1961424565122627</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.673476549995854</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.865880485710875</v>
+        <v>2.987723297274044</v>
       </c>
       <c r="C4">
-        <v>0.7237344073967051</v>
+        <v>0.4067635141398114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1586867419495448</v>
+        <v>0.01383258514464625</v>
       </c>
       <c r="F4">
-        <v>1.279101425912756</v>
+        <v>2.341302208824203</v>
       </c>
       <c r="G4">
-        <v>0.1967491451017196</v>
+        <v>0.0008406307195213337</v>
       </c>
       <c r="H4">
-        <v>0.4407008965404202</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3666441536218628</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04567018967252068</v>
+        <v>0.1077576835110605</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7160811758034527</v>
       </c>
       <c r="L4">
-        <v>0.3536106081413735</v>
+        <v>0.1818773773173703</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.690706120781329</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.743979034016718</v>
+        <v>2.877917871543559</v>
       </c>
       <c r="C5">
-        <v>0.692980085105404</v>
+        <v>0.3887279438105793</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.151909871559603</v>
+        <v>0.01372603252544946</v>
       </c>
       <c r="F5">
-        <v>1.226896057474477</v>
+        <v>2.295819451500321</v>
       </c>
       <c r="G5">
-        <v>0.1901075021758842</v>
+        <v>0.0008431242511632303</v>
       </c>
       <c r="H5">
-        <v>0.429801200760501</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.362131681919621</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04644220392701559</v>
+        <v>0.1081870582296567</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6880884163291441</v>
       </c>
       <c r="L5">
-        <v>0.3384136650204255</v>
+        <v>0.1761273195294066</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.698249089882239</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.723768719893883</v>
+        <v>2.859763286085013</v>
       </c>
       <c r="C6">
-        <v>0.6878833608942045</v>
+        <v>0.3857438805588629</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1507867449873146</v>
+        <v>0.01370852639747644</v>
       </c>
       <c r="F6">
-        <v>1.218269349788628</v>
+        <v>2.288332697304952</v>
       </c>
       <c r="G6">
-        <v>0.1890178864144261</v>
+        <v>0.0008435407483782962</v>
       </c>
       <c r="H6">
-        <v>0.4280196267114036</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3614119348241474</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04657455309587366</v>
+        <v>0.1082607456791607</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6834593724134876</v>
       </c>
       <c r="L6">
-        <v>0.3358950967378291</v>
+        <v>0.1751761562734657</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.699532223314392</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.86423430336896</v>
+        <v>2.986237050674333</v>
       </c>
       <c r="C7">
-        <v>0.7233189486595677</v>
+        <v>0.4065195406879241</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1585951969865391</v>
+        <v>0.01383113530498448</v>
       </c>
       <c r="F7">
-        <v>1.27839449378618</v>
+        <v>2.340684348022066</v>
       </c>
       <c r="G7">
-        <v>0.1966586707889419</v>
+        <v>0.000840664185184894</v>
       </c>
       <c r="H7">
-        <v>0.4405519700614349</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.36658128676725</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04568031895653046</v>
+        <v>0.1077633122404578</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7157023447145647</v>
       </c>
       <c r="L7">
-        <v>0.3534053195051001</v>
+        <v>0.1817995828470131</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.690805775595166</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.489496095966047</v>
+        <v>3.5569731976409</v>
       </c>
       <c r="C8">
-        <v>0.881417759403945</v>
+        <v>0.4999854815629874</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1934168599287815</v>
+        <v>0.01440287739916313</v>
       </c>
       <c r="F8">
-        <v>1.550483574913116</v>
+        <v>2.581973797969511</v>
       </c>
       <c r="G8">
-        <v>0.2324813485203379</v>
+        <v>0.0008283129410349144</v>
       </c>
       <c r="H8">
-        <v>0.5003231777920334</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3940181778262541</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04238049735828398</v>
+        <v>0.1059353971913133</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8610844084620339</v>
       </c>
       <c r="L8">
-        <v>0.4315029886712125</v>
+        <v>0.2115984186831668</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.656964069285138</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.744524227602312</v>
+        <v>4.734871153234451</v>
       </c>
       <c r="C9">
-        <v>1.200662106052789</v>
+        <v>0.6921867112671691</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2635475623692898</v>
+        <v>0.01567495228845273</v>
       </c>
       <c r="F9">
-        <v>2.115598522289133</v>
+        <v>3.100012085936982</v>
       </c>
       <c r="G9">
-        <v>0.3122779557019584</v>
+        <v>0.0008051778154451256</v>
       </c>
       <c r="H9">
-        <v>0.6374125659334453</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.468015946883952</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03869514888550896</v>
+        <v>0.1038881158084983</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.160803038739104</v>
       </c>
       <c r="L9">
-        <v>0.5889388894025913</v>
+        <v>0.2725571462516143</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.609692771825095</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.69459756660649</v>
+        <v>5.650661212958425</v>
       </c>
       <c r="C10">
-        <v>1.444144078317606</v>
+        <v>0.841595753649159</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3167791655447658</v>
+        <v>0.0167495824835393</v>
       </c>
       <c r="F10">
-        <v>2.557840158506025</v>
+        <v>3.516667970554209</v>
       </c>
       <c r="G10">
-        <v>0.3788892384786635</v>
+        <v>0.0007886840298527754</v>
       </c>
       <c r="H10">
-        <v>0.7544202799345356</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5385809683325178</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03820570268731238</v>
+        <v>0.1035658951003455</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.393759229549786</v>
       </c>
       <c r="L10">
-        <v>0.7086523523756938</v>
+        <v>0.3193953953688293</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.589149170212721</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.135600357852809</v>
+        <v>6.082042212884971</v>
       </c>
       <c r="C11">
-        <v>1.557720640163438</v>
+        <v>0.9120771685514342</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3415155019816254</v>
+        <v>0.01728247592953103</v>
       </c>
       <c r="F11">
-        <v>2.766914545070819</v>
+        <v>3.716310420797299</v>
       </c>
       <c r="G11">
-        <v>0.4114907393547611</v>
+        <v>0.0007812488572994453</v>
       </c>
       <c r="H11">
-        <v>0.8122751083210744</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5752133617511035</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03860495420917154</v>
+        <v>0.1037419850331389</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.503512519488709</v>
       </c>
       <c r="L11">
-        <v>0.7643627273646914</v>
+        <v>0.3412812170228676</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.583554066544892</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.304125671923487</v>
+        <v>6.247893672495934</v>
       </c>
       <c r="C12">
-        <v>1.601218972924755</v>
+        <v>0.93920029905604</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3509717004607893</v>
+        <v>0.01749202260521709</v>
       </c>
       <c r="F12">
-        <v>2.847414876503365</v>
+        <v>3.793583242376712</v>
       </c>
       <c r="G12">
-        <v>0.4242219096059898</v>
+        <v>0.0007784391392739871</v>
       </c>
       <c r="H12">
-        <v>0.8349549770855447</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.589835775883337</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03885969439979675</v>
+        <v>0.103861714744383</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.545715220376437</v>
       </c>
       <c r="L12">
-        <v>0.7856746537705135</v>
+        <v>0.3496647292254096</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.582040755974234</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.267758268428224</v>
+        <v>6.212057053269973</v>
       </c>
       <c r="C13">
-        <v>1.591827584584109</v>
+        <v>0.9333383119048904</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.348930931345528</v>
+        <v>0.01744652258146595</v>
       </c>
       <c r="F13">
-        <v>2.830015257876852</v>
+        <v>3.77686293326687</v>
       </c>
       <c r="G13">
-        <v>0.4214619092871601</v>
+        <v>0.0007790440723535924</v>
       </c>
       <c r="H13">
-        <v>0.8300342942818588</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5866514710930346</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03879997564371607</v>
+        <v>0.1038334515887058</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.536595866951671</v>
       </c>
       <c r="L13">
-        <v>0.7810745403015886</v>
+        <v>0.3478547094003801</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.582338587705394</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.149432808330573</v>
+        <v>6.095634553299192</v>
       </c>
       <c r="C14">
-        <v>1.561288938289579</v>
+        <v>0.9142994692100785</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3422915959844701</v>
+        <v>0.01729955097249314</v>
       </c>
       <c r="F14">
-        <v>2.773509535247968</v>
+        <v>3.722632811280562</v>
       </c>
       <c r="G14">
-        <v>0.4125300672358918</v>
+        <v>0.0007810176079796616</v>
       </c>
       <c r="H14">
-        <v>0.8141248703703496</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5764006982770269</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03862374716541694</v>
+        <v>0.1037507300444744</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.506971091714476</v>
       </c>
       <c r="L14">
-        <v>0.7661115298761132</v>
+        <v>0.3419689350082251</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.583417017583741</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.077162276287709</v>
+        <v>6.024659503767623</v>
       </c>
       <c r="C15">
-        <v>1.542649583473235</v>
+        <v>0.9026963812334259</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3382368646893568</v>
+        <v>0.01721058299435951</v>
       </c>
       <c r="F15">
-        <v>2.739077310599271</v>
+        <v>3.68964016555347</v>
       </c>
       <c r="G15">
-        <v>0.4071110512882257</v>
+        <v>0.0007822270867633078</v>
       </c>
       <c r="H15">
-        <v>0.8044837697912044</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5702227179173747</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03852974694041578</v>
+        <v>0.1037071853739135</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.488911756949932</v>
       </c>
       <c r="L15">
-        <v>0.7569754724130178</v>
+        <v>0.338376609829325</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.584158563442628</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.665975707170389</v>
+        <v>5.622797447913456</v>
       </c>
       <c r="C16">
-        <v>1.436785184321536</v>
+        <v>0.8370461159476008</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3151742416025698</v>
+        <v>0.01671575789353996</v>
       </c>
       <c r="F16">
-        <v>2.544351468794702</v>
+        <v>3.503842261477274</v>
       </c>
       <c r="G16">
-        <v>0.376809455386379</v>
+        <v>0.0007891709778655215</v>
       </c>
       <c r="H16">
-        <v>0.7507411762912</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5362862855005091</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03819328026571789</v>
+        <v>0.1035614240104152</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.386670713445653</v>
       </c>
       <c r="L16">
-        <v>0.7050396757096564</v>
+        <v>0.3179777923907636</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.589595725024438</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.416156577255322</v>
+        <v>5.380302222153261</v>
       </c>
       <c r="C17">
-        <v>1.372618285873045</v>
+        <v>0.7974635768350424</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3011690327996064</v>
+        <v>0.01642440374810616</v>
       </c>
       <c r="F17">
-        <v>2.427045406001071</v>
+        <v>3.392595921220078</v>
       </c>
       <c r="G17">
-        <v>0.3588461664171376</v>
+        <v>0.0007934455897313973</v>
       </c>
       <c r="H17">
-        <v>0.7190279178217764</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5166942048964245</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03815549800981444</v>
+        <v>0.1035590465534391</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.324982704086139</v>
       </c>
       <c r="L17">
-        <v>0.6735232736888364</v>
+        <v>0.3056204893587591</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.593935891116587</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.273278871564969</v>
+        <v>5.242191784418424</v>
       </c>
       <c r="C18">
-        <v>1.335970458817485</v>
+        <v>0.7749285410570224</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2931616995215762</v>
+        <v>0.01626087012655775</v>
       </c>
       <c r="F18">
-        <v>2.360304376207765</v>
+        <v>3.329546143631234</v>
       </c>
       <c r="G18">
-        <v>0.3487269013142367</v>
+        <v>0.000795910894046297</v>
       </c>
       <c r="H18">
-        <v>0.7012156804913445</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5058452622925884</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03819133357307436</v>
+        <v>0.1035875938730584</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.289850587174882</v>
       </c>
       <c r="L18">
-        <v>0.6555113362178062</v>
+        <v>0.298566537313036</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.596780750142017</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.225034980924306</v>
+        <v>5.195654185003832</v>
       </c>
       <c r="C19">
-        <v>1.32360428444133</v>
+        <v>0.7673363615258495</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2904584114155</v>
+        <v>0.01620615641773571</v>
       </c>
       <c r="F19">
-        <v>2.337826969751845</v>
+        <v>3.308353157610497</v>
       </c>
       <c r="G19">
-        <v>0.3453356789180759</v>
+        <v>0.0007967468591524172</v>
       </c>
       <c r="H19">
-        <v>0.6952553459834405</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5022413255169695</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03821296035143185</v>
+        <v>0.1036022120701645</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.278012673054022</v>
       </c>
       <c r="L19">
-        <v>0.6494316276749501</v>
+        <v>0.296187046200842</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.597801965925655</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.442664475810432</v>
+        <v>5.405972315709789</v>
       </c>
       <c r="C20">
-        <v>1.379421554076714</v>
+        <v>0.8016527302665111</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3026548369515822</v>
+        <v>0.01645499078398094</v>
       </c>
       <c r="F20">
-        <v>2.439455934740636</v>
+        <v>3.404339899391942</v>
       </c>
       <c r="G20">
-        <v>0.360735997202184</v>
+        <v>0.0007929898875987858</v>
       </c>
       <c r="H20">
-        <v>0.7223587905297535</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5187356848480889</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03815346701093958</v>
+        <v>0.1035561588405294</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.331512693274689</v>
       </c>
       <c r="L20">
-        <v>0.6768660560456965</v>
+        <v>0.3069303076806165</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.593437354923196</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.184144160348808</v>
+        <v>6.129759673551519</v>
       </c>
       <c r="C21">
-        <v>1.570244862567847</v>
+        <v>0.9198792507099824</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3442391898788983</v>
+        <v>0.01734249700794877</v>
       </c>
       <c r="F21">
-        <v>2.790068916976821</v>
+        <v>3.73851421271803</v>
       </c>
       <c r="G21">
-        <v>0.4151426204232678</v>
+        <v>0.0007804378092349753</v>
       </c>
       <c r="H21">
-        <v>0.8187759937383561</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5793903715680671</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0386725750452932</v>
+        <v>0.1037735291227477</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.515654343471539</v>
       </c>
       <c r="L21">
-        <v>0.7705003691204908</v>
+        <v>0.3436950202287221</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.583083248884165</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.677793931656424</v>
+        <v>6.617563324213393</v>
       </c>
       <c r="C22">
-        <v>1.697859908941155</v>
+        <v>0.9997147349341162</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3719441924938209</v>
+        <v>0.017968590648759</v>
       </c>
       <c r="F22">
-        <v>3.027066796077577</v>
+        <v>3.966791154210711</v>
       </c>
       <c r="G22">
-        <v>0.452980128413671</v>
+        <v>0.0007722659643673819</v>
       </c>
       <c r="H22">
-        <v>0.8863479601476882</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6234629451289919</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03962377780641546</v>
+        <v>0.1042287330035663</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.63979720832252</v>
       </c>
       <c r="L22">
-        <v>0.8329727949268744</v>
+        <v>0.3682885470941386</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.579883375370528</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.413399719960523</v>
+        <v>6.355724909069352</v>
       </c>
       <c r="C23">
-        <v>1.629452624118244</v>
+        <v>0.9568433773715128</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3571040903555485</v>
+        <v>0.01762967250881498</v>
       </c>
       <c r="F23">
-        <v>2.899787369009147</v>
+        <v>3.843970828727947</v>
       </c>
       <c r="G23">
-        <v>0.4325566304743944</v>
+        <v>0.0007766259925647421</v>
       </c>
       <c r="H23">
-        <v>0.8498272937534495</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.599498632436962</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03905480282130469</v>
+        <v>0.1039546305594499</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.573156248882938</v>
       </c>
       <c r="L23">
-        <v>0.7995001647706488</v>
+        <v>0.3551061477673301</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.58124028005038</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.430677948442053</v>
+        <v>5.39436283425232</v>
       </c>
       <c r="C24">
-        <v>1.376345047165103</v>
+        <v>0.7997581293710994</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.30198296749505</v>
+        <v>0.01644115012319181</v>
       </c>
       <c r="F24">
-        <v>2.433842969254414</v>
+        <v>3.399027637251351</v>
       </c>
       <c r="G24">
-        <v>0.3598809606677378</v>
+        <v>0.000793195886022133</v>
       </c>
       <c r="H24">
-        <v>0.7208516021620284</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5178114470204065</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03815420698437322</v>
+        <v>0.1035573716878631</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.328559454707602</v>
       </c>
       <c r="L24">
-        <v>0.675354452667257</v>
+        <v>0.306337982679878</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.593661658965516</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.400915485234691</v>
+        <v>4.408535089316331</v>
       </c>
       <c r="C25">
-        <v>1.112994254187498</v>
+        <v>0.6389729779323261</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2443216224396565</v>
+        <v>0.01531021405301836</v>
       </c>
       <c r="F25">
-        <v>1.958588200767196</v>
+        <v>2.954230066519159</v>
       </c>
       <c r="G25">
-        <v>0.2894610102004123</v>
+        <v>0.0008113354786210772</v>
       </c>
       <c r="H25">
-        <v>0.5977980811002084</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4454624362319066</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03934469983175859</v>
+        <v>0.1042542227586409</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.077788020364537</v>
       </c>
       <c r="L25">
-        <v>0.5457516236098741</v>
+        <v>0.2557465238845111</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.620193418146002</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.715103624809558</v>
+        <v>2.38263172688761</v>
       </c>
       <c r="C2">
-        <v>0.525822808535537</v>
+        <v>0.5674375831359839</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01456649940469235</v>
+        <v>0.4010729957126316</v>
       </c>
       <c r="F2">
-        <v>2.650100011702804</v>
+        <v>1.122205258771885</v>
       </c>
       <c r="G2">
-        <v>0.0008250450927174136</v>
+        <v>0.1347261201502477</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1420535842213368</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.105536244359584</v>
+        <v>0.02140330993316653</v>
       </c>
       <c r="K2">
-        <v>0.9013389915533168</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2198260704628581</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.110180871908959</v>
       </c>
       <c r="N2">
-        <v>1.649003030690125</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.5338238315167274</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.26057468319658</v>
+        <v>2.080845945411113</v>
       </c>
       <c r="C3">
-        <v>0.4514958967798748</v>
+        <v>0.5063875492931231</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01410223893621909</v>
+        <v>0.3679813796925373</v>
       </c>
       <c r="F3">
-        <v>2.455703835850883</v>
+        <v>1.041168762717703</v>
       </c>
       <c r="G3">
-        <v>0.0008346089478210191</v>
+        <v>0.1292823681325999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1461128908192535</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1068044392742422</v>
+        <v>0.02086969213954326</v>
       </c>
       <c r="K3">
-        <v>0.7856047836384334</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1961424565122627</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9672122943948551</v>
       </c>
       <c r="N3">
-        <v>1.673476549995854</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.5304055164520349</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.987723297274044</v>
+        <v>1.895522946726572</v>
       </c>
       <c r="C4">
-        <v>0.4067635141398114</v>
+        <v>0.4689344978335726</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01383258514464625</v>
+        <v>0.3481846638933561</v>
       </c>
       <c r="F4">
-        <v>2.341302208824203</v>
+        <v>0.9938650414513006</v>
       </c>
       <c r="G4">
-        <v>0.0008406307195213337</v>
+        <v>0.1267663616403141</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1491273572922154</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1077576835110605</v>
+        <v>0.02056851754156419</v>
       </c>
       <c r="K4">
-        <v>0.7160811758034527</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1818773773173703</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8797103440594185</v>
       </c>
       <c r="N4">
-        <v>1.690706120781329</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.5311429787745681</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.877917871543559</v>
+        <v>1.819974451465328</v>
       </c>
       <c r="C5">
-        <v>0.3887279438105793</v>
+        <v>0.4536760883943032</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01372603252544946</v>
+        <v>0.3402394262366002</v>
       </c>
       <c r="F5">
-        <v>2.295819451500321</v>
+        <v>0.9751659199927474</v>
       </c>
       <c r="G5">
-        <v>0.0008431242511632303</v>
+        <v>0.1259358107519617</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1504812641139708</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1081870582296567</v>
+        <v>0.02045220064264264</v>
       </c>
       <c r="K5">
-        <v>0.6880884163291441</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1761273195294066</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8441089562206017</v>
       </c>
       <c r="N5">
-        <v>1.698249089882239</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.5321168567744508</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.859763286085013</v>
+        <v>1.8074273991285</v>
       </c>
       <c r="C6">
-        <v>0.3857438805588629</v>
+        <v>0.4511425723073614</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01370852639747644</v>
+        <v>0.3389272431624022</v>
       </c>
       <c r="F6">
-        <v>2.288332697304952</v>
+        <v>0.9720947165845359</v>
       </c>
       <c r="G6">
-        <v>0.0008435407483782962</v>
+        <v>0.1258092897434508</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1507134946275244</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1082607456791607</v>
+        <v>0.02043326691702951</v>
       </c>
       <c r="K6">
-        <v>0.6834593724134876</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1751761562734657</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8382003745446625</v>
       </c>
       <c r="N6">
-        <v>1.699532223314392</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.532318108382853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.986237050674333</v>
+        <v>1.894504213450375</v>
       </c>
       <c r="C7">
-        <v>0.4065195406879241</v>
+        <v>0.4687287064132875</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01383113530498448</v>
+        <v>0.3480770289644042</v>
       </c>
       <c r="F7">
-        <v>2.340684348022066</v>
+        <v>0.9936105706003957</v>
       </c>
       <c r="G7">
-        <v>0.000840664185184894</v>
+        <v>0.1267543888680365</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1491451158974968</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1077633122404578</v>
+        <v>0.02056692318913456</v>
       </c>
       <c r="K7">
-        <v>0.7157023447145647</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1817995828470131</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8792300014032932</v>
       </c>
       <c r="N7">
-        <v>1.690805775595166</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.5311534377167817</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.5569731976409</v>
+        <v>2.278567731908993</v>
       </c>
       <c r="C8">
-        <v>0.4999854815629874</v>
+        <v>0.5463783756454461</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01440287739916313</v>
+        <v>0.3895490875532204</v>
       </c>
       <c r="F8">
-        <v>2.581973797969511</v>
+        <v>1.093730420937149</v>
       </c>
       <c r="G8">
-        <v>0.0008283129410349144</v>
+        <v>0.1326695052108207</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1433413166886339</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1059353971913133</v>
+        <v>0.02121367481601588</v>
       </c>
       <c r="K8">
-        <v>0.8610844084620339</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2115984186831668</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.060817934912521</v>
       </c>
       <c r="N8">
-        <v>1.656964069285138</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.5320319215471443</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.734871153234451</v>
+        <v>3.032599126700973</v>
       </c>
       <c r="C9">
-        <v>0.6921867112671691</v>
+        <v>0.6991070760266211</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01567495228845273</v>
+        <v>0.475456276342122</v>
       </c>
       <c r="F9">
-        <v>3.100012085936982</v>
+        <v>1.311418945521439</v>
       </c>
       <c r="G9">
-        <v>0.0008051778154451256</v>
+        <v>0.151449691101206</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1363772071247524</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1038881158084983</v>
+        <v>0.02270369329438893</v>
       </c>
       <c r="K9">
-        <v>1.160803038739104</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2725571462516143</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.419856292016675</v>
       </c>
       <c r="N9">
-        <v>1.609692771825095</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.5581567468896083</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.650661212958425</v>
+        <v>3.588807260318049</v>
       </c>
       <c r="C10">
-        <v>0.841595753649159</v>
+        <v>0.8119163917604624</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0167495824835393</v>
+        <v>0.542028429476602</v>
       </c>
       <c r="F10">
-        <v>3.516667970554209</v>
+        <v>1.487189161285912</v>
       </c>
       <c r="G10">
-        <v>0.0007886840298527754</v>
+        <v>0.1705437614424525</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1343586667919681</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1035658951003455</v>
+        <v>0.02395116237096317</v>
       </c>
       <c r="K10">
-        <v>1.393759229549786</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3193953953688293</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.686527478760638</v>
       </c>
       <c r="N10">
-        <v>1.589149170212721</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.5950241609359068</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.082042212884971</v>
+        <v>3.842734363103261</v>
       </c>
       <c r="C11">
-        <v>0.9120771685514342</v>
+        <v>0.8634453156552127</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01728247592953103</v>
+        <v>0.573225045402296</v>
       </c>
       <c r="F11">
-        <v>3.716310420797299</v>
+        <v>1.571267166384914</v>
       </c>
       <c r="G11">
-        <v>0.0007812488572994453</v>
+        <v>0.1805992276001902</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.134209740332949</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1037419850331389</v>
+        <v>0.02455607072141319</v>
       </c>
       <c r="K11">
-        <v>1.503512519488709</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3412812170228676</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.808734947956466</v>
       </c>
       <c r="N11">
-        <v>1.583554066544892</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.6163007759278543</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.247893672495934</v>
+        <v>3.939056376658584</v>
       </c>
       <c r="C12">
-        <v>0.93920029905604</v>
+        <v>0.8829953390046228</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01749202260521709</v>
+        <v>0.5851841450465045</v>
       </c>
       <c r="F12">
-        <v>3.793583242376712</v>
+        <v>1.60375877361642</v>
       </c>
       <c r="G12">
-        <v>0.0007784391392739871</v>
+        <v>0.1846236330703235</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1342727044939522</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.103861714744383</v>
+        <v>0.02479089633755294</v>
       </c>
       <c r="K12">
-        <v>1.545715220376437</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3496647292254096</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.855164366238242</v>
       </c>
       <c r="N12">
-        <v>1.582040755974234</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.6250656934693239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.212057053269973</v>
+        <v>3.918303762999699</v>
       </c>
       <c r="C13">
-        <v>0.9333383119048904</v>
+        <v>0.8787831263832118</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01744652258146595</v>
+        <v>0.5826018205276</v>
       </c>
       <c r="F13">
-        <v>3.77686293326687</v>
+        <v>1.596731059142016</v>
       </c>
       <c r="G13">
-        <v>0.0007790440723535924</v>
+        <v>0.1837469420105649</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.134253689478669</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1038334515887058</v>
+        <v>0.02474005993785156</v>
       </c>
       <c r="K13">
-        <v>1.536595866951671</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3478547094003801</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.845157807642337</v>
       </c>
       <c r="N13">
-        <v>1.582338587705394</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.6231455225639877</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.095634553299192</v>
+        <v>3.850655307747957</v>
       </c>
       <c r="C14">
-        <v>0.9142994692100785</v>
+        <v>0.865052922855682</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01729955097249314</v>
+        <v>0.5742059226165068</v>
       </c>
       <c r="F14">
-        <v>3.722632811280562</v>
+        <v>1.573926816377295</v>
       </c>
       <c r="G14">
-        <v>0.0007810176079796616</v>
+        <v>0.1809258585220377</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1342124759584564</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1037507300444744</v>
+        <v>0.02457527226085787</v>
       </c>
       <c r="K14">
-        <v>1.506971091714476</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3419689350082251</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.812551536838512</v>
       </c>
       <c r="N14">
-        <v>1.583417017583741</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.6170073232707409</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.024659503767623</v>
+        <v>3.809241300252722</v>
       </c>
       <c r="C15">
-        <v>0.9026963812334259</v>
+        <v>0.8566478231798555</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01721058299435951</v>
+        <v>0.5690826040043575</v>
       </c>
       <c r="F15">
-        <v>3.68964016555347</v>
+        <v>1.560045496050591</v>
       </c>
       <c r="G15">
-        <v>0.0007822270867633078</v>
+        <v>0.1792266827458135</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1342030458265313</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1037071853739135</v>
+        <v>0.02447509687241123</v>
       </c>
       <c r="K15">
-        <v>1.488911756949932</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.338376609829325</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.792599779809677</v>
       </c>
       <c r="N15">
-        <v>1.584158563442628</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.6133415496557859</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.622797447913456</v>
+        <v>3.572233681779721</v>
       </c>
       <c r="C16">
-        <v>0.8370461159476008</v>
+        <v>0.8085536722605013</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01671575789353996</v>
+        <v>0.5400092240765773</v>
       </c>
       <c r="F16">
-        <v>3.503842261477274</v>
+        <v>1.481782440774865</v>
       </c>
       <c r="G16">
-        <v>0.0007891709778655215</v>
+        <v>0.1699158209568878</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1343846120655954</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1035614240104152</v>
+        <v>0.02391241498768792</v>
       </c>
       <c r="K16">
-        <v>1.386670713445653</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3179777923907636</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.678560918928255</v>
       </c>
       <c r="N16">
-        <v>1.589595725024438</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.5937293785886339</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.380302222153261</v>
+        <v>3.427093141979526</v>
       </c>
       <c r="C17">
-        <v>0.7974635768350424</v>
+        <v>0.7791082276510792</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01642440374810616</v>
+        <v>0.5224172547901063</v>
       </c>
       <c r="F17">
-        <v>3.392595921220078</v>
+        <v>1.434867375368697</v>
       </c>
       <c r="G17">
-        <v>0.0007934455897313973</v>
+        <v>0.1645682272755309</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1346990519531417</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1035590465534391</v>
+        <v>0.02357707407263021</v>
       </c>
       <c r="K17">
-        <v>1.324982704086139</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3056204893587591</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.608847429544227</v>
       </c>
       <c r="N17">
-        <v>1.593935891116587</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.5828932591173839</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.242191784418424</v>
+        <v>3.343695072248522</v>
       </c>
       <c r="C18">
-        <v>0.7749285410570224</v>
+        <v>0.7621914474806317</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01626087012655775</v>
+        <v>0.5123837892968126</v>
       </c>
       <c r="F18">
-        <v>3.329546143631234</v>
+        <v>1.408266885652893</v>
       </c>
       <c r="G18">
-        <v>0.000795910894046297</v>
+        <v>0.1616200736633786</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1349517619167315</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1035875938730584</v>
+        <v>0.02338769351473147</v>
       </c>
       <c r="K18">
-        <v>1.289850587174882</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.298566537313036</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.568833052339215</v>
       </c>
       <c r="N18">
-        <v>1.596780750142017</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.5770808377492926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.195654185003832</v>
+        <v>3.315471138011674</v>
       </c>
       <c r="C19">
-        <v>0.7673363615258495</v>
+        <v>0.7564668627999538</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01620615641773571</v>
+        <v>0.5090008047740966</v>
       </c>
       <c r="F19">
-        <v>3.308353157610497</v>
+        <v>1.399324563193588</v>
       </c>
       <c r="G19">
-        <v>0.0007967468591524172</v>
+        <v>0.1606432251894034</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1350494101453279</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1036022120701645</v>
+        <v>0.02332416236239965</v>
       </c>
       <c r="K19">
-        <v>1.278012673054022</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.296187046200842</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.555298451627806</v>
       </c>
       <c r="N19">
-        <v>1.597801965925655</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.5751832674305319</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.405972315709789</v>
+        <v>3.442534771857083</v>
       </c>
       <c r="C20">
-        <v>0.8016527302665111</v>
+        <v>0.7822406843986869</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01645499078398094</v>
+        <v>0.5242810554502384</v>
       </c>
       <c r="F20">
-        <v>3.404339899391942</v>
+        <v>1.439821415827993</v>
       </c>
       <c r="G20">
-        <v>0.0007929898875987858</v>
+        <v>0.1651241393493308</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1346580816117608</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1035561588405294</v>
+        <v>0.02361240694104083</v>
       </c>
       <c r="K20">
-        <v>1.331512693274689</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3069303076806165</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.616259800634921</v>
       </c>
       <c r="N20">
-        <v>1.593437354923196</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.5840028695037773</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.129759673551519</v>
+        <v>3.870520516976853</v>
       </c>
       <c r="C21">
-        <v>0.9198792507099824</v>
+        <v>0.8690847519265503</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01734249700794877</v>
+        <v>0.5766679286651666</v>
       </c>
       <c r="F21">
-        <v>3.73851421271803</v>
+        <v>1.580606742420699</v>
       </c>
       <c r="G21">
-        <v>0.0007804378092349753</v>
+        <v>0.1817484359941162</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1342212691668152</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1037735291227477</v>
+        <v>0.02462351491778492</v>
       </c>
       <c r="K21">
-        <v>1.515654343471539</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3436950202287221</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.822124467601924</v>
       </c>
       <c r="N21">
-        <v>1.583083248884165</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.6187905476199944</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.617563324213393</v>
+        <v>4.151216090270623</v>
       </c>
       <c r="C22">
-        <v>0.9997147349341162</v>
+        <v>0.9260623938599508</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.017968590648759</v>
+        <v>0.6117621192706721</v>
       </c>
       <c r="F22">
-        <v>3.966791154210711</v>
+        <v>1.676456556681771</v>
       </c>
       <c r="G22">
-        <v>0.0007722659643673819</v>
+        <v>0.1938862050908483</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1346360355424139</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1042287330035663</v>
+        <v>0.02531810239312549</v>
       </c>
       <c r="K22">
-        <v>1.63979720832252</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3682885470941386</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.957567614252866</v>
       </c>
       <c r="N22">
-        <v>1.579883375370528</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.6456837810521847</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.355724909069352</v>
+        <v>4.001301316440561</v>
       </c>
       <c r="C23">
-        <v>0.9568433773715128</v>
+        <v>0.8956298410120382</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01762967250881498</v>
+        <v>0.5929482600341984</v>
       </c>
       <c r="F23">
-        <v>3.843970828727947</v>
+        <v>1.624927133241528</v>
       </c>
       <c r="G23">
-        <v>0.0007766259925647421</v>
+        <v>0.1872846925277685</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1343475363830322</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1039546305594499</v>
+        <v>0.02494416553550849</v>
       </c>
       <c r="K23">
-        <v>1.573156248882938</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3551061477673301</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.885188697592326</v>
       </c>
       <c r="N23">
-        <v>1.58124028005038</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.6309289243905454</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.39436283425232</v>
+        <v>3.435553472948413</v>
       </c>
       <c r="C24">
-        <v>0.7997581293710994</v>
+        <v>0.7808244644566287</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01644115012319181</v>
+        <v>0.5234381818417546</v>
       </c>
       <c r="F24">
-        <v>3.399027637251351</v>
+        <v>1.437580541200887</v>
       </c>
       <c r="G24">
-        <v>0.000793195886022133</v>
+        <v>0.1648724197341167</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1346763808964724</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1035573716878631</v>
+        <v>0.02359642235368398</v>
       </c>
       <c r="K24">
-        <v>1.328559454707602</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.306337982679878</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.612908467433172</v>
       </c>
       <c r="N24">
-        <v>1.593661658965516</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.5834999190029464</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.408535089316331</v>
+        <v>2.82835336171587</v>
       </c>
       <c r="C25">
-        <v>0.6389729779323261</v>
+        <v>0.6577094341530483</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01531021405301836</v>
+        <v>0.451660188631088</v>
       </c>
       <c r="F25">
-        <v>2.954230066519159</v>
+        <v>1.249963541786229</v>
       </c>
       <c r="G25">
-        <v>0.0008113354786210772</v>
+        <v>0.1455092003568197</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.137748085389056</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1042542227586409</v>
+        <v>0.0222751272612598</v>
       </c>
       <c r="K25">
-        <v>1.077788020364537</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2557465238845111</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.322304064344891</v>
       </c>
       <c r="N25">
-        <v>1.620193418146002</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5481991817313343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.38263172688761</v>
+        <v>0.7760525136293381</v>
       </c>
       <c r="C2">
-        <v>0.5674375831359839</v>
+        <v>0.2180509122735828</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4010729957126316</v>
+        <v>0.6142252801313077</v>
       </c>
       <c r="F2">
-        <v>1.122205258771885</v>
+        <v>1.757488351347746</v>
       </c>
       <c r="G2">
-        <v>0.1347261201502477</v>
+        <v>0.2263892630966495</v>
       </c>
       <c r="H2">
-        <v>0.1420535842213368</v>
+        <v>0.4108106610496733</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02140330993316653</v>
+        <v>0.02531087551720645</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.110180871908959</v>
+        <v>0.5844291644989994</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5338238315167274</v>
+        <v>1.188163707121475</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.080845945411113</v>
+        <v>0.6778198579905279</v>
       </c>
       <c r="C3">
-        <v>0.5063875492931231</v>
+        <v>0.1975436041533385</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3679813796925373</v>
+        <v>0.6094916102050902</v>
       </c>
       <c r="F3">
-        <v>1.041168762717703</v>
+        <v>1.754147175247581</v>
       </c>
       <c r="G3">
-        <v>0.1292823681325999</v>
+        <v>0.229686122775064</v>
       </c>
       <c r="H3">
-        <v>0.1461128908192535</v>
+        <v>0.4165103899592637</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02086969213954326</v>
+        <v>0.02523304911029456</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9672122943948551</v>
+        <v>0.5423405840568734</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5304055164520349</v>
+        <v>1.20682936809321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895522946726572</v>
+        <v>0.6172785654531481</v>
       </c>
       <c r="C4">
-        <v>0.4689344978335726</v>
+        <v>0.184912588078646</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3481846638933561</v>
+        <v>0.6068645613842847</v>
       </c>
       <c r="F4">
-        <v>0.9938650414513006</v>
+        <v>1.753280031083364</v>
       </c>
       <c r="G4">
-        <v>0.1267663616403141</v>
+        <v>0.2320194039267562</v>
       </c>
       <c r="H4">
-        <v>0.1491273572922154</v>
+        <v>0.4202886834045643</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02056851754156419</v>
+        <v>0.02519748287690327</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8797103440594185</v>
+        <v>0.5165698385727993</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5311429787745681</v>
+        <v>1.219519924096545</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819974451465328</v>
+        <v>0.5925523104570232</v>
       </c>
       <c r="C5">
-        <v>0.4536760883943032</v>
+        <v>0.1797558400093351</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3402394262366002</v>
+        <v>0.6058643311945247</v>
       </c>
       <c r="F5">
-        <v>0.9751659199927474</v>
+        <v>1.753224164932519</v>
       </c>
       <c r="G5">
-        <v>0.1259358107519617</v>
+        <v>0.2330476092990423</v>
       </c>
       <c r="H5">
-        <v>0.1504812641139708</v>
+        <v>0.4218983654264008</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02045220064264264</v>
+        <v>0.02518607236251569</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8441089562206017</v>
+        <v>0.5060867275251013</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5321168567744508</v>
+        <v>1.224999824122577</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.8074273991285</v>
+        <v>0.5884432504918777</v>
       </c>
       <c r="C6">
-        <v>0.4511425723073614</v>
+        <v>0.1788990039769658</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3389272431624022</v>
+        <v>0.6057024918553751</v>
       </c>
       <c r="F6">
-        <v>0.9720947165845359</v>
+        <v>1.753232847668144</v>
       </c>
       <c r="G6">
-        <v>0.1258092897434508</v>
+        <v>0.2332230056826248</v>
       </c>
       <c r="H6">
-        <v>0.1507134946275244</v>
+        <v>0.4221698775141931</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02043326691702951</v>
+        <v>0.025184364168096</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8382003745446625</v>
+        <v>0.5043471612833557</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.532318108382853</v>
+        <v>1.22592835902374</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.894504213450375</v>
+        <v>0.6169453197763346</v>
       </c>
       <c r="C7">
-        <v>0.4687287064132875</v>
+        <v>0.1848430803117651</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3480770289644042</v>
+        <v>0.6068507871736912</v>
       </c>
       <c r="F7">
-        <v>0.9936105706003957</v>
+        <v>1.753278073495466</v>
       </c>
       <c r="G7">
-        <v>0.1267543888680365</v>
+        <v>0.2320329578101479</v>
       </c>
       <c r="H7">
-        <v>0.1491451158974968</v>
+        <v>0.420310108816949</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02056692318913456</v>
+        <v>0.02519731649408286</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8792300014032932</v>
+        <v>0.5164283832248344</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5311534377167817</v>
+        <v>1.21959258037954</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.278567731908993</v>
+        <v>0.7422297678719474</v>
       </c>
       <c r="C8">
-        <v>0.5463783756454461</v>
+        <v>0.2109884193797598</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3895490875532204</v>
+        <v>0.6125351361599343</v>
       </c>
       <c r="F8">
-        <v>1.093730420937149</v>
+        <v>1.756090307155645</v>
       </c>
       <c r="G8">
-        <v>0.1326695052108207</v>
+        <v>0.2274616929812368</v>
       </c>
       <c r="H8">
-        <v>0.1433413166886339</v>
+        <v>0.4127180555936434</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02121367481601588</v>
+        <v>0.02528151087322783</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.060817934912521</v>
+        <v>0.5699024738093925</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5320319215471443</v>
+        <v>1.194343886478592</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.032599126700973</v>
+        <v>0.9860580427597938</v>
       </c>
       <c r="C9">
-        <v>0.6991070760266211</v>
+        <v>0.2619308300883745</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.475456276342122</v>
+        <v>0.6258987158461764</v>
       </c>
       <c r="F9">
-        <v>1.311418945521439</v>
+        <v>1.771019546550406</v>
       </c>
       <c r="G9">
-        <v>0.151449691101206</v>
+        <v>0.2209638730881309</v>
       </c>
       <c r="H9">
-        <v>0.1363772071247524</v>
+        <v>0.4000439312112007</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02270369329438893</v>
+        <v>0.02554316318042638</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.419856292016675</v>
+        <v>0.6753131117226587</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5581567468896083</v>
+        <v>1.15462657014281</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.588807260318049</v>
+        <v>1.164004701926046</v>
       </c>
       <c r="C10">
-        <v>0.8119163917604624</v>
+        <v>0.2991408766451968</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.542028429476602</v>
+        <v>0.6370692740184225</v>
       </c>
       <c r="F10">
-        <v>1.487189161285912</v>
+        <v>1.787755533121739</v>
       </c>
       <c r="G10">
-        <v>0.1705437614424525</v>
+        <v>0.2177138278962332</v>
       </c>
       <c r="H10">
-        <v>0.1343586667919681</v>
+        <v>0.3920859253160174</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02395116237096317</v>
+        <v>0.02579377319429099</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.686527478760638</v>
+        <v>0.7530713973138603</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5950241609359068</v>
+        <v>1.131469607009677</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.842734363103261</v>
+        <v>1.244685801467824</v>
       </c>
       <c r="C11">
-        <v>0.8634453156552127</v>
+        <v>0.3160181771187354</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.573225045402296</v>
+        <v>0.6424450627900384</v>
       </c>
       <c r="F11">
-        <v>1.571267166384914</v>
+        <v>1.796627856655121</v>
       </c>
       <c r="G11">
-        <v>0.1805992276001902</v>
+        <v>0.2165705416260906</v>
       </c>
       <c r="H11">
-        <v>0.134209740332949</v>
+        <v>0.3887604261205979</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02455607072141319</v>
+        <v>0.02592036164913836</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.808734947956466</v>
+        <v>0.7885097375974226</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6163007759278543</v>
+        <v>1.122253914653299</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.939056376658584</v>
+        <v>1.275197748310859</v>
       </c>
       <c r="C12">
-        <v>0.8829953390046228</v>
+        <v>0.322401667456063</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5851841450465045</v>
+        <v>0.6445230385680958</v>
       </c>
       <c r="F12">
-        <v>1.60375877361642</v>
+        <v>1.800169050410744</v>
       </c>
       <c r="G12">
-        <v>0.1846236330703235</v>
+        <v>0.2161861556577378</v>
       </c>
       <c r="H12">
-        <v>0.1342727044939522</v>
+        <v>0.3875435915012062</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02479089633755294</v>
+        <v>0.02597009822203233</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.855164366238242</v>
+        <v>0.8019382631061376</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6250656934693239</v>
+        <v>1.118954680706196</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.918303762999699</v>
+        <v>1.268628271530815</v>
       </c>
       <c r="C13">
-        <v>0.8787831263832118</v>
+        <v>0.3210272123044433</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5826018205276</v>
+        <v>0.6440736293189531</v>
       </c>
       <c r="F13">
-        <v>1.596731059142016</v>
+        <v>1.799398315314463</v>
       </c>
       <c r="G13">
-        <v>0.1837469420105649</v>
+        <v>0.2162667750867513</v>
       </c>
       <c r="H13">
-        <v>0.134253689478669</v>
+        <v>0.387803768749535</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02474005993785156</v>
+        <v>0.02595930664136503</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.845157807642337</v>
+        <v>0.7990458090562527</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6231455225639877</v>
+        <v>1.119656740040455</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.850655307747957</v>
+        <v>1.247196853940864</v>
       </c>
       <c r="C14">
-        <v>0.865052922855682</v>
+        <v>0.3165435049824907</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5742059226165068</v>
+        <v>0.6426151719032731</v>
       </c>
       <c r="F14">
-        <v>1.573926816377295</v>
+        <v>1.796915554296504</v>
       </c>
       <c r="G14">
-        <v>0.1809258585220377</v>
+        <v>0.2165379428916623</v>
       </c>
       <c r="H14">
-        <v>0.1342124759584564</v>
+        <v>0.3886594649262847</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02457527226085787</v>
+        <v>0.02592441748030794</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.812551536838512</v>
+        <v>0.7896143379303595</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6170073232707409</v>
+        <v>1.121978660405929</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.809241300252722</v>
+        <v>1.234064200894693</v>
       </c>
       <c r="C15">
-        <v>0.8566478231798555</v>
+        <v>0.3137961054940206</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5690826040043575</v>
+        <v>0.6417273299849171</v>
       </c>
       <c r="F15">
-        <v>1.560045496050591</v>
+        <v>1.795418431516907</v>
       </c>
       <c r="G15">
-        <v>0.1792266827458135</v>
+        <v>0.2167103743421421</v>
       </c>
       <c r="H15">
-        <v>0.1342030458265313</v>
+        <v>0.3891891357580874</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02447509687241123</v>
+        <v>0.02590328103375938</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.792599779809677</v>
+        <v>0.7838384156170122</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6133415496557859</v>
+        <v>1.123425746752801</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.572233681779721</v>
+        <v>1.158726466212102</v>
       </c>
       <c r="C16">
-        <v>0.8085536722605013</v>
+        <v>0.2980368681004961</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5400092240765773</v>
+        <v>0.6367238718935013</v>
       </c>
       <c r="F16">
-        <v>1.481782440774865</v>
+        <v>1.78720107428633</v>
       </c>
       <c r="G16">
-        <v>0.1699158209568878</v>
+        <v>0.2177953192255728</v>
       </c>
       <c r="H16">
-        <v>0.1343846120655954</v>
+        <v>0.3923091911751513</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02391241498768792</v>
+        <v>0.02578575277116002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.678560918928255</v>
+        <v>0.7507566846548457</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5937293785886339</v>
+        <v>1.132098487289923</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.427093141979526</v>
+        <v>1.112439394421074</v>
       </c>
       <c r="C17">
-        <v>0.7791082276510792</v>
+        <v>0.2883560437700794</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5224172547901063</v>
+        <v>0.6337297535536663</v>
       </c>
       <c r="F17">
-        <v>1.434867375368697</v>
+        <v>1.782482739141557</v>
       </c>
       <c r="G17">
-        <v>0.1645682272755309</v>
+        <v>0.2185469966599598</v>
       </c>
       <c r="H17">
-        <v>0.1346990519531417</v>
+        <v>0.3942987728629177</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02357707407263021</v>
+        <v>0.02571686950113872</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.608847429544227</v>
+        <v>0.7304784768163159</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5828932591173839</v>
+        <v>1.137757313623212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.343695072248522</v>
+        <v>1.085791197813933</v>
       </c>
       <c r="C18">
-        <v>0.7621914474806317</v>
+        <v>0.2827832333448441</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5123837892968126</v>
+        <v>0.6320353134834846</v>
       </c>
       <c r="F18">
-        <v>1.408266885652893</v>
+        <v>1.779887361104059</v>
       </c>
       <c r="G18">
-        <v>0.1616200736633786</v>
+        <v>0.2190108689114467</v>
       </c>
       <c r="H18">
-        <v>0.1349517619167315</v>
+        <v>0.3954708548728689</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02338769351473147</v>
+        <v>0.02567843474960085</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.568833052339215</v>
+        <v>0.7188212113353813</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5770808377492926</v>
+        <v>1.141136170504723</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.315471138011674</v>
+        <v>1.076764319013705</v>
       </c>
       <c r="C19">
-        <v>0.7564668627999538</v>
+        <v>0.280895588791708</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5090008047740966</v>
+        <v>0.631466363238701</v>
       </c>
       <c r="F19">
-        <v>1.399324563193588</v>
+        <v>1.779028948489724</v>
       </c>
       <c r="G19">
-        <v>0.1606432251894034</v>
+        <v>0.2191733321127671</v>
       </c>
       <c r="H19">
-        <v>0.1350494101453279</v>
+        <v>0.3958724611009998</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02332416236239965</v>
+        <v>0.02566562523112381</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.555298451627806</v>
+        <v>0.7148753503892635</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5751832674305319</v>
+        <v>1.142301470133162</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.442534771857083</v>
+        <v>1.117369342317772</v>
       </c>
       <c r="C20">
-        <v>0.7822406843986869</v>
+        <v>0.2893870690539586</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5242810554502384</v>
+        <v>0.6340456161899581</v>
       </c>
       <c r="F20">
-        <v>1.439821415827993</v>
+        <v>1.782972748546214</v>
       </c>
       <c r="G20">
-        <v>0.1651241393493308</v>
+        <v>0.218463713789923</v>
       </c>
       <c r="H20">
-        <v>0.1346580816117608</v>
+        <v>0.3940841081674051</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02361240694104083</v>
+        <v>0.02572407965961077</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.616259800634921</v>
+        <v>0.7326364873150482</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5840028695037773</v>
+        <v>1.137142076355801</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.870520516976853</v>
+        <v>1.253492886496304</v>
       </c>
       <c r="C21">
-        <v>0.8690847519265503</v>
+        <v>0.317860687512848</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5766679286651666</v>
+        <v>0.643042408941696</v>
       </c>
       <c r="F21">
-        <v>1.580606742420699</v>
+        <v>1.797639874136536</v>
       </c>
       <c r="G21">
-        <v>0.1817484359941162</v>
+        <v>0.2164569738426607</v>
       </c>
       <c r="H21">
-        <v>0.1342212691668152</v>
+        <v>0.3884069731451518</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02462351491778492</v>
+        <v>0.02593461648783091</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.822124467601924</v>
+        <v>0.7923843561076609</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6187905476199944</v>
+        <v>1.121291477153108</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.151216090270623</v>
+        <v>1.342222180128317</v>
       </c>
       <c r="C22">
-        <v>0.9260623938599508</v>
+        <v>0.3364254843910999</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6117621192706721</v>
+        <v>0.6491687667410346</v>
       </c>
       <c r="F22">
-        <v>1.676456556681771</v>
+        <v>1.808283424352936</v>
       </c>
       <c r="G22">
-        <v>0.1938862050908483</v>
+        <v>0.2154286128558951</v>
       </c>
       <c r="H22">
-        <v>0.1346360355424139</v>
+        <v>0.3849441673162275</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02531810239312549</v>
+        <v>0.0260827035850788</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.957567614252866</v>
+        <v>0.831484007297405</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6456837810521847</v>
+        <v>1.112043294166568</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.001301316440561</v>
+        <v>1.294887786441905</v>
       </c>
       <c r="C23">
-        <v>0.8956298410120382</v>
+        <v>0.3265213009313754</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5929482600341984</v>
+        <v>0.6458764756038278</v>
       </c>
       <c r="F23">
-        <v>1.624927133241528</v>
+        <v>1.802505850122415</v>
       </c>
       <c r="G23">
-        <v>0.1872846925277685</v>
+        <v>0.2159514428932141</v>
       </c>
       <c r="H23">
-        <v>0.1343475363830322</v>
+        <v>0.3867696528621423</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02494416553550849</v>
+        <v>0.02600271002469867</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.885188697592326</v>
+        <v>0.8106113389470124</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6309289243905454</v>
+        <v>1.116877246261026</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.435553472948413</v>
+        <v>1.115140628438667</v>
       </c>
       <c r="C24">
-        <v>0.7808244644566287</v>
+        <v>0.2889209648427595</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5234381818417546</v>
+        <v>0.6339027308399068</v>
       </c>
       <c r="F24">
-        <v>1.437580541200887</v>
+        <v>1.782750850077875</v>
       </c>
       <c r="G24">
-        <v>0.1648724197341167</v>
+        <v>0.2185012671876194</v>
       </c>
       <c r="H24">
-        <v>0.1346763808964724</v>
+        <v>0.3941810701006077</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02359642235368398</v>
+        <v>0.02572081631075918</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.612908467433172</v>
+        <v>0.7316608477729147</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5834999190029464</v>
+        <v>1.137419834200614</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.82835336171587</v>
+        <v>0.920301176789792</v>
       </c>
       <c r="C25">
-        <v>0.6577094341530483</v>
+        <v>0.2481865118657822</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.451660188631088</v>
+        <v>0.6220461076313839</v>
       </c>
       <c r="F25">
-        <v>1.249963541786229</v>
+        <v>1.765969994392776</v>
       </c>
       <c r="G25">
-        <v>0.1455092003568197</v>
+        <v>0.2224555530345995</v>
       </c>
       <c r="H25">
-        <v>0.137748085389056</v>
+        <v>0.4032351895155983</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0222751272612598</v>
+        <v>0.02546209385334208</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.322304064344891</v>
+        <v>0.6467402572518921</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5481991817313343</v>
+        <v>1.164317125648708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7760525136293381</v>
+        <v>2.382631726887496</v>
       </c>
       <c r="C2">
-        <v>0.2180509122735828</v>
+        <v>0.5674375831357565</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6142252801313077</v>
+        <v>0.4010729957126031</v>
       </c>
       <c r="F2">
-        <v>1.757488351347746</v>
+        <v>1.122205258771885</v>
       </c>
       <c r="G2">
-        <v>0.2263892630966495</v>
+        <v>0.1347261201503045</v>
       </c>
       <c r="H2">
-        <v>0.4108106610496733</v>
+        <v>0.1420535842213368</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02531087551720645</v>
+        <v>0.02140330993310968</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5844291644989994</v>
+        <v>1.110180871908966</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.188163707121475</v>
+        <v>0.5338238315167274</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6778198579905279</v>
+        <v>2.080845945411113</v>
       </c>
       <c r="C3">
-        <v>0.1975436041533385</v>
+        <v>0.5063875492931516</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6094916102050902</v>
+        <v>0.3679813796925089</v>
       </c>
       <c r="F3">
-        <v>1.754147175247581</v>
+        <v>1.041168762717717</v>
       </c>
       <c r="G3">
-        <v>0.229686122775064</v>
+        <v>0.1292823681325999</v>
       </c>
       <c r="H3">
-        <v>0.4165103899592637</v>
+        <v>0.1461128908192535</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02523304911029456</v>
+        <v>0.02086969213953616</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5423405840568734</v>
+        <v>0.9672122943948551</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.20682936809321</v>
+        <v>0.5304055164520918</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6172785654531481</v>
+        <v>1.895522946726686</v>
       </c>
       <c r="C4">
-        <v>0.184912588078646</v>
+        <v>0.4689344978336578</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6068645613842847</v>
+        <v>0.3481846638933561</v>
       </c>
       <c r="F4">
-        <v>1.753280031083364</v>
+        <v>0.9938650414512864</v>
       </c>
       <c r="G4">
-        <v>0.2320194039267562</v>
+        <v>0.1267663616403141</v>
       </c>
       <c r="H4">
-        <v>0.4202886834045643</v>
+        <v>0.1491273572921017</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02519748287690327</v>
+        <v>0.02056851754156064</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5165698385727993</v>
+        <v>0.8797103440594185</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.219519924096545</v>
+        <v>0.5311429787745681</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5925523104570232</v>
+        <v>1.819974451465299</v>
       </c>
       <c r="C5">
-        <v>0.1797558400093351</v>
+        <v>0.4536760883943032</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6058643311945247</v>
+        <v>0.3402394262366286</v>
       </c>
       <c r="F5">
-        <v>1.753224164932519</v>
+        <v>0.9751659199927616</v>
       </c>
       <c r="G5">
-        <v>0.2330476092990423</v>
+        <v>0.1259358107519546</v>
       </c>
       <c r="H5">
-        <v>0.4218983654264008</v>
+        <v>0.1504812641139708</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02518607236251569</v>
+        <v>0.02045220064266395</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5060867275251013</v>
+        <v>0.8441089562206017</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.224999824122577</v>
+        <v>0.5321168567744508</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5884432504918777</v>
+        <v>1.807427399128585</v>
       </c>
       <c r="C6">
-        <v>0.1788990039769658</v>
+        <v>0.4511425723076172</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6057024918553751</v>
+        <v>0.338927243162388</v>
       </c>
       <c r="F6">
-        <v>1.753232847668144</v>
+        <v>0.9720947165845502</v>
       </c>
       <c r="G6">
-        <v>0.2332230056826248</v>
+        <v>0.125809289743394</v>
       </c>
       <c r="H6">
-        <v>0.4221698775141931</v>
+        <v>0.1507134946276381</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.025184364168096</v>
+        <v>0.02043326691702774</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5043471612833557</v>
+        <v>0.8382003745446553</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.22592835902374</v>
+        <v>0.5323181083828672</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6169453197763346</v>
+        <v>1.894504213450176</v>
       </c>
       <c r="C7">
-        <v>0.1848430803117651</v>
+        <v>0.4687287064133159</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6068507871736912</v>
+        <v>0.3480770289644042</v>
       </c>
       <c r="F7">
-        <v>1.753278073495466</v>
+        <v>0.9936105706003957</v>
       </c>
       <c r="G7">
-        <v>0.2320329578101479</v>
+        <v>0.1267543888680933</v>
       </c>
       <c r="H7">
-        <v>0.420310108816949</v>
+        <v>0.1491451158974968</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02519731649408286</v>
+        <v>0.02056692318925002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5164283832248344</v>
+        <v>0.879230001403279</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.21959258037954</v>
+        <v>0.5311534377167959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7422297678719474</v>
+        <v>2.278567731908993</v>
       </c>
       <c r="C8">
-        <v>0.2109884193797598</v>
+        <v>0.5463783756451619</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6125351361599343</v>
+        <v>0.3895490875532417</v>
       </c>
       <c r="F8">
-        <v>1.756090307155645</v>
+        <v>1.093730420937135</v>
       </c>
       <c r="G8">
-        <v>0.2274616929812368</v>
+        <v>0.1326695052108207</v>
       </c>
       <c r="H8">
-        <v>0.4127180555936434</v>
+        <v>0.143341316688641</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02528151087322783</v>
+        <v>0.02121367481601233</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5699024738093925</v>
+        <v>1.060817934912507</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.194343886478592</v>
+        <v>0.5320319215472153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9860580427597938</v>
+        <v>3.032599126701314</v>
       </c>
       <c r="C9">
-        <v>0.2619308300883745</v>
+        <v>0.6991070760265927</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6258987158461764</v>
+        <v>0.4754562763421077</v>
       </c>
       <c r="F9">
-        <v>1.771019546550406</v>
+        <v>1.311418945521439</v>
       </c>
       <c r="G9">
-        <v>0.2209638730881309</v>
+        <v>0.1514496911012131</v>
       </c>
       <c r="H9">
-        <v>0.4000439312112007</v>
+        <v>0.136377207124859</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02554316318042638</v>
+        <v>0.02270369329444932</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6753131117226587</v>
+        <v>1.419856292016675</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.15462657014281</v>
+        <v>0.5581567468895514</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.164004701926046</v>
+        <v>3.588807260317935</v>
       </c>
       <c r="C10">
-        <v>0.2991408766451968</v>
+        <v>0.8119163917602066</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6370692740184225</v>
+        <v>0.5420284294765736</v>
       </c>
       <c r="F10">
-        <v>1.787755533121739</v>
+        <v>1.487189161285912</v>
       </c>
       <c r="G10">
-        <v>0.2177138278962332</v>
+        <v>0.1705437614423886</v>
       </c>
       <c r="H10">
-        <v>0.3920859253160174</v>
+        <v>0.1343586667919681</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02579377319429099</v>
+        <v>0.02395116237096317</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7530713973138603</v>
+        <v>1.686527478760624</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.131469607009677</v>
+        <v>0.5950241609359495</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.244685801467824</v>
+        <v>3.842734363103148</v>
       </c>
       <c r="C11">
-        <v>0.3160181771187354</v>
+        <v>0.8634453156551274</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6424450627900384</v>
+        <v>0.5732250454022889</v>
       </c>
       <c r="F11">
-        <v>1.796627856655121</v>
+        <v>1.571267166384914</v>
       </c>
       <c r="G11">
-        <v>0.2165705416260906</v>
+        <v>0.1805992276002044</v>
       </c>
       <c r="H11">
-        <v>0.3887604261205979</v>
+        <v>0.1342097403329561</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02592036164913836</v>
+        <v>0.0245560707214274</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7885097375974226</v>
+        <v>1.808734947956452</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.122253914653299</v>
+        <v>0.6163007759279111</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.275197748310859</v>
+        <v>3.939056376658755</v>
       </c>
       <c r="C12">
-        <v>0.322401667456063</v>
+        <v>0.8829953390045659</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6445230385680958</v>
+        <v>0.5851841450465187</v>
       </c>
       <c r="F12">
-        <v>1.800169050410744</v>
+        <v>1.603758773616391</v>
       </c>
       <c r="G12">
-        <v>0.2161861556577378</v>
+        <v>0.1846236330703306</v>
       </c>
       <c r="H12">
-        <v>0.3875435915012062</v>
+        <v>0.134272704493938</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02597009822203233</v>
+        <v>0.02479089633752452</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8019382631061376</v>
+        <v>1.855164366238256</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.118954680706196</v>
+        <v>0.6250656934693239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.268628271530815</v>
+        <v>3.918303762999699</v>
       </c>
       <c r="C13">
-        <v>0.3210272123044433</v>
+        <v>0.8787831263834676</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6440736293189531</v>
+        <v>0.5826018205276142</v>
       </c>
       <c r="F13">
-        <v>1.799398315314463</v>
+        <v>1.596731059142002</v>
       </c>
       <c r="G13">
-        <v>0.2162667750867513</v>
+        <v>0.1837469420104867</v>
       </c>
       <c r="H13">
-        <v>0.387803768749535</v>
+        <v>0.134253689478669</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02595930664136503</v>
+        <v>0.02474005993790129</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7990458090562527</v>
+        <v>1.845157807642337</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.119656740040455</v>
+        <v>0.6231455225639735</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.247196853940864</v>
+        <v>3.850655307748355</v>
       </c>
       <c r="C14">
-        <v>0.3165435049824907</v>
+        <v>0.8650529228553694</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6426151719032731</v>
+        <v>0.5742059226164997</v>
       </c>
       <c r="F14">
-        <v>1.796915554296504</v>
+        <v>1.573926816377295</v>
       </c>
       <c r="G14">
-        <v>0.2165379428916623</v>
+        <v>0.1809258585220945</v>
       </c>
       <c r="H14">
-        <v>0.3886594649262847</v>
+        <v>0.1342124759584564</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02592441748030794</v>
+        <v>0.02457527226086498</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7896143379303595</v>
+        <v>1.812551536838541</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.121978660405929</v>
+        <v>0.6170073232708546</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.234064200894693</v>
+        <v>3.809241300252609</v>
       </c>
       <c r="C15">
-        <v>0.3137961054940206</v>
+        <v>0.8566478231797987</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6417273299849171</v>
+        <v>0.5690826040043504</v>
       </c>
       <c r="F15">
-        <v>1.795418431516907</v>
+        <v>1.560045496050591</v>
       </c>
       <c r="G15">
-        <v>0.2167103743421421</v>
+        <v>0.179226682745707</v>
       </c>
       <c r="H15">
-        <v>0.3891891357580874</v>
+        <v>0.1342030458265242</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02590328103375938</v>
+        <v>0.02447509687248228</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7838384156170122</v>
+        <v>1.792599779809692</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.123425746752801</v>
+        <v>0.6133415496557433</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.158726466212102</v>
+        <v>3.572233681779892</v>
       </c>
       <c r="C16">
-        <v>0.2980368681004961</v>
+        <v>0.8085536722607287</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6367238718935013</v>
+        <v>0.5400092240765773</v>
       </c>
       <c r="F16">
-        <v>1.78720107428633</v>
+        <v>1.481782440774865</v>
       </c>
       <c r="G16">
-        <v>0.2177953192255728</v>
+        <v>0.1699158209569376</v>
       </c>
       <c r="H16">
-        <v>0.3923091911751513</v>
+        <v>0.1343846120655883</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02578575277116002</v>
+        <v>0.02391241498763463</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7507566846548457</v>
+        <v>1.678560918928284</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.132098487289923</v>
+        <v>0.593729378588705</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.112439394421074</v>
+        <v>3.427093141979583</v>
       </c>
       <c r="C17">
-        <v>0.2883560437700794</v>
+        <v>0.779108227651335</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6337297535536663</v>
+        <v>0.5224172547900992</v>
       </c>
       <c r="F17">
-        <v>1.782482739141557</v>
+        <v>1.434867375368697</v>
       </c>
       <c r="G17">
-        <v>0.2185469966599598</v>
+        <v>0.1645682272754811</v>
       </c>
       <c r="H17">
-        <v>0.3942987728629177</v>
+        <v>0.1346990519531417</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02571686950113872</v>
+        <v>0.02357707407263732</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7304784768163159</v>
+        <v>1.608847429544213</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.137757313623212</v>
+        <v>0.5828932591174407</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.085791197813933</v>
+        <v>3.343695072248522</v>
       </c>
       <c r="C18">
-        <v>0.2827832333448441</v>
+        <v>0.7621914474801486</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6320353134834846</v>
+        <v>0.5123837892968552</v>
       </c>
       <c r="F18">
-        <v>1.779887361104059</v>
+        <v>1.408266885652907</v>
       </c>
       <c r="G18">
-        <v>0.2190108689114467</v>
+        <v>0.1616200736634212</v>
       </c>
       <c r="H18">
-        <v>0.3954708548728689</v>
+        <v>0.1349517619167315</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02567843474960085</v>
+        <v>0.02338769351474568</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7188212113353813</v>
+        <v>1.56883305233923</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.141136170504723</v>
+        <v>0.5770808377492926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.076764319013705</v>
+        <v>3.315471138011617</v>
       </c>
       <c r="C19">
-        <v>0.280895588791708</v>
+        <v>0.7564668627997264</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.631466363238701</v>
+        <v>0.5090008047741037</v>
       </c>
       <c r="F19">
-        <v>1.779028948489724</v>
+        <v>1.399324563193588</v>
       </c>
       <c r="G19">
-        <v>0.2191733321127671</v>
+        <v>0.1606432251894105</v>
       </c>
       <c r="H19">
-        <v>0.3958724611009998</v>
+        <v>0.135049410145335</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02566562523112381</v>
+        <v>0.0233241623624032</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7148753503892635</v>
+        <v>1.55529845162782</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.142301470133162</v>
+        <v>0.5751832674304751</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.117369342317772</v>
+        <v>3.44253477185714</v>
       </c>
       <c r="C20">
-        <v>0.2893870690539586</v>
+        <v>0.7822406843989711</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6340456161899581</v>
+        <v>0.5242810554502597</v>
       </c>
       <c r="F20">
-        <v>1.782972748546214</v>
+        <v>1.439821415827993</v>
       </c>
       <c r="G20">
-        <v>0.218463713789923</v>
+        <v>0.1651241393493237</v>
       </c>
       <c r="H20">
-        <v>0.3940841081674051</v>
+        <v>0.1346580816117537</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02572407965961077</v>
+        <v>0.02361240694108346</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7326364873150482</v>
+        <v>1.616259800634921</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.137142076355801</v>
+        <v>0.5840028695038484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.253492886496304</v>
+        <v>3.87052051697674</v>
       </c>
       <c r="C21">
-        <v>0.317860687512848</v>
+        <v>0.8690847519267777</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.643042408941696</v>
+        <v>0.5766679286651666</v>
       </c>
       <c r="F21">
-        <v>1.797639874136536</v>
+        <v>1.580606742420699</v>
       </c>
       <c r="G21">
-        <v>0.2164569738426607</v>
+        <v>0.1817484359941304</v>
       </c>
       <c r="H21">
-        <v>0.3884069731451518</v>
+        <v>0.1342212691668081</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02593461648783091</v>
+        <v>0.02462351491781334</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7923843561076609</v>
+        <v>1.822124467601924</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.121291477153108</v>
+        <v>0.6187905476200513</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.342222180128317</v>
+        <v>4.151216090270907</v>
       </c>
       <c r="C22">
-        <v>0.3364254843910999</v>
+        <v>0.9260623938597519</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6491687667410346</v>
+        <v>0.611762119270665</v>
       </c>
       <c r="F22">
-        <v>1.808283424352936</v>
+        <v>1.676456556681757</v>
       </c>
       <c r="G22">
-        <v>0.2154286128558951</v>
+        <v>0.193886205090962</v>
       </c>
       <c r="H22">
-        <v>0.3849441673162275</v>
+        <v>0.1346360355424139</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0260827035850788</v>
+        <v>0.02531810239312904</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.831484007297405</v>
+        <v>1.957567614252838</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.112043294166568</v>
+        <v>0.6456837810521847</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.294887786441905</v>
+        <v>4.001301316440561</v>
       </c>
       <c r="C23">
-        <v>0.3265213009313754</v>
+        <v>0.8956298410122372</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6458764756038278</v>
+        <v>0.5929482600342055</v>
       </c>
       <c r="F23">
-        <v>1.802505850122415</v>
+        <v>1.624927133241528</v>
       </c>
       <c r="G23">
-        <v>0.2159514428932141</v>
+        <v>0.1872846925278395</v>
       </c>
       <c r="H23">
-        <v>0.3867696528621423</v>
+        <v>0.134347536383153</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02600271002469867</v>
+        <v>0.02494416553551915</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8106113389470124</v>
+        <v>1.885188697592355</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.116877246261026</v>
+        <v>0.630928924390517</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.115140628438667</v>
+        <v>3.435553472948243</v>
       </c>
       <c r="C24">
-        <v>0.2889209648427595</v>
+        <v>0.7808244644568845</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6339027308399068</v>
+        <v>0.5234381818417759</v>
       </c>
       <c r="F24">
-        <v>1.782750850077875</v>
+        <v>1.437580541200887</v>
       </c>
       <c r="G24">
-        <v>0.2185012671876194</v>
+        <v>0.1648724197341238</v>
       </c>
       <c r="H24">
-        <v>0.3941810701006077</v>
+        <v>0.1346763808964724</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02572081631075918</v>
+        <v>0.0235964223536449</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7316608477729147</v>
+        <v>1.612908467433201</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.137419834200614</v>
+        <v>0.5834999190030032</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.920301176789792</v>
+        <v>2.828353361715983</v>
       </c>
       <c r="C25">
-        <v>0.2481865118657822</v>
+        <v>0.6577094341527641</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6220461076313839</v>
+        <v>0.4516601886310809</v>
       </c>
       <c r="F25">
-        <v>1.765969994392776</v>
+        <v>1.249963541786229</v>
       </c>
       <c r="G25">
-        <v>0.2224555530345995</v>
+        <v>0.1455092003568694</v>
       </c>
       <c r="H25">
-        <v>0.4032351895155983</v>
+        <v>0.137748085389056</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02546209385334208</v>
+        <v>0.02227512726125269</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6467402572518921</v>
+        <v>1.322304064344905</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.164317125648708</v>
+        <v>0.5481991817313911</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.382631726887496</v>
+        <v>1.194362698620637</v>
       </c>
       <c r="C2">
-        <v>0.5674375831357565</v>
+        <v>0.08809949020021435</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4010729957126031</v>
+        <v>0.09564519755569378</v>
       </c>
       <c r="F2">
-        <v>1.122205258771885</v>
+        <v>1.34564599131194</v>
       </c>
       <c r="G2">
-        <v>0.1347261201503045</v>
+        <v>0.7096051924461477</v>
       </c>
       <c r="H2">
-        <v>0.1420535842213368</v>
+        <v>0.007562457913321524</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.009334354072109807</v>
       </c>
       <c r="J2">
-        <v>0.02140330993310968</v>
+        <v>0.5384976289636114</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.58899115751327</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06282846564324274</v>
       </c>
       <c r="M2">
-        <v>1.110180871908966</v>
+        <v>0.9969461060509275</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3808005053086561</v>
       </c>
       <c r="O2">
-        <v>0.5338238315167274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.07886433786793</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.080845945411113</v>
+        <v>1.043512630852888</v>
       </c>
       <c r="C3">
-        <v>0.5063875492931516</v>
+        <v>0.07916164852353091</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3679813796925089</v>
+        <v>0.08638409777418588</v>
       </c>
       <c r="F3">
-        <v>1.041168762717717</v>
+        <v>1.263719806710341</v>
       </c>
       <c r="G3">
-        <v>0.1292823681325999</v>
+        <v>0.6834023191803027</v>
       </c>
       <c r="H3">
-        <v>0.1461128908192535</v>
+        <v>0.01024565544692644</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01204665751200418</v>
       </c>
       <c r="J3">
-        <v>0.02086969213953616</v>
+        <v>0.5308654955205014</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5781826255689353</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05900522479281989</v>
       </c>
       <c r="M3">
-        <v>0.9672122943948551</v>
+        <v>0.8673251922646159</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3366289489437264</v>
       </c>
       <c r="O3">
-        <v>0.5304055164520918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.112505912309933</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.895522946726686</v>
+        <v>0.950636223280128</v>
       </c>
       <c r="C4">
-        <v>0.4689344978336578</v>
+        <v>0.07374264777351414</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3481846638933561</v>
+        <v>0.08069136767667828</v>
       </c>
       <c r="F4">
-        <v>0.9938650414512864</v>
+        <v>1.213973026728596</v>
       </c>
       <c r="G4">
-        <v>0.1267663616403141</v>
+        <v>0.6677407098305252</v>
       </c>
       <c r="H4">
-        <v>0.1491273572921017</v>
+        <v>0.01216682558468732</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01399124377442229</v>
       </c>
       <c r="J4">
-        <v>0.02056851754156064</v>
+        <v>0.5264683545666031</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5717496453506286</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05663296055346123</v>
       </c>
       <c r="M4">
-        <v>0.8797103440594185</v>
+        <v>0.7877562747329705</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3096239838108943</v>
       </c>
       <c r="O4">
-        <v>0.5311429787745681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.133701516940155</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819974451465299</v>
+        <v>0.9119144695225145</v>
       </c>
       <c r="C5">
-        <v>0.4536760883943032</v>
+        <v>0.07165992998379522</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3402394262366286</v>
+        <v>0.07837057930892044</v>
       </c>
       <c r="F5">
-        <v>0.9751659199927616</v>
+        <v>1.193058214427836</v>
       </c>
       <c r="G5">
-        <v>0.1259358107519546</v>
+        <v>0.6607608131927805</v>
       </c>
       <c r="H5">
-        <v>0.1504812641139708</v>
+        <v>0.01302112761725699</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01494036643529073</v>
       </c>
       <c r="J5">
-        <v>0.02045220064266395</v>
+        <v>0.5243878093685055</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5686361615752169</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0556959571764164</v>
       </c>
       <c r="M5">
-        <v>0.8441089562206017</v>
+        <v>0.75509809660619</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2988890724169124</v>
       </c>
       <c r="O5">
-        <v>0.5321168567744508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.142170490180623</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.807427399128585</v>
+        <v>0.9044949957415156</v>
       </c>
       <c r="C6">
-        <v>0.4511425723076172</v>
+        <v>0.07145143353506711</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.338927243162388</v>
+        <v>0.07798665435810648</v>
       </c>
       <c r="F6">
-        <v>0.9720947165845502</v>
+        <v>1.188646727192037</v>
       </c>
       <c r="G6">
-        <v>0.125809289743394</v>
+        <v>0.65875363713441</v>
       </c>
       <c r="H6">
-        <v>0.1507134946276381</v>
+        <v>0.01317314027519267</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01521802253889515</v>
       </c>
       <c r="J6">
-        <v>0.02043326691702774</v>
+        <v>0.5236080941818955</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.567461323209006</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05558474671814828</v>
       </c>
       <c r="M6">
-        <v>0.8382003745446553</v>
+        <v>0.7493930199437102</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2974067968102361</v>
       </c>
       <c r="O6">
-        <v>0.5323181083828672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.143219084497549</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.894504213450176</v>
+        <v>0.9474132908196395</v>
       </c>
       <c r="C7">
-        <v>0.4687287064133159</v>
+        <v>0.07408824307453443</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3480770289644042</v>
+        <v>0.08066446493646851</v>
       </c>
       <c r="F7">
-        <v>0.9936105706003957</v>
+        <v>1.211105618337498</v>
       </c>
       <c r="G7">
-        <v>0.1267543888680933</v>
+        <v>0.6653136943443343</v>
       </c>
       <c r="H7">
-        <v>0.1491451158974968</v>
+        <v>0.01219406896555723</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01430325552507128</v>
       </c>
       <c r="J7">
-        <v>0.02056692318925002</v>
+        <v>0.5252442041270058</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5699039173902634</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0567434126091193</v>
       </c>
       <c r="M7">
-        <v>0.879230001403279</v>
+        <v>0.7865427995222376</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3102966518753476</v>
       </c>
       <c r="O7">
-        <v>0.5311534377167959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.132832152102774</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.278567731908993</v>
+        <v>1.138786902552255</v>
       </c>
       <c r="C8">
-        <v>0.5463783756451619</v>
+        <v>0.0855015146935969</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3895490875532417</v>
+        <v>0.09245880093877545</v>
       </c>
       <c r="F8">
-        <v>1.093730420937135</v>
+        <v>1.313855914792072</v>
       </c>
       <c r="G8">
-        <v>0.1326695052108207</v>
+        <v>0.6973960800457775</v>
       </c>
       <c r="H8">
-        <v>0.143341316688641</v>
+        <v>0.008445997953402729</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0105676471646543</v>
       </c>
       <c r="J8">
-        <v>0.02121367481601233</v>
+        <v>0.5342300189595761</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5828422208964454</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06168174995213604</v>
       </c>
       <c r="M8">
-        <v>1.060817934912507</v>
+        <v>0.9512065412206994</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3666333576633747</v>
       </c>
       <c r="O8">
-        <v>0.5320319215472153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.089120957824992</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.032599126701314</v>
+        <v>1.517205158575081</v>
       </c>
       <c r="C9">
-        <v>0.6991070760265927</v>
+        <v>0.10788987468149</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4754562763421077</v>
+        <v>0.1155602126855264</v>
       </c>
       <c r="F9">
-        <v>1.311418945521439</v>
+        <v>1.524822079035019</v>
       </c>
       <c r="G9">
-        <v>0.1514496911012131</v>
+        <v>0.7681707249667369</v>
       </c>
       <c r="H9">
-        <v>0.136377207124859</v>
+        <v>0.003364433460842697</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00512443482669056</v>
       </c>
       <c r="J9">
-        <v>0.02270369329444932</v>
+        <v>0.5564018570662057</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6131610351845751</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07096325487417587</v>
       </c>
       <c r="M9">
-        <v>1.419856292016675</v>
+        <v>1.276055836126858</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4767187533131079</v>
       </c>
       <c r="O9">
-        <v>0.5581567468895514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.00947343280875</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.588807260317935</v>
+        <v>1.782851378127731</v>
       </c>
       <c r="C10">
-        <v>0.8119163917602066</v>
+        <v>0.1260202120630538</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5420284294765736</v>
+        <v>0.1284752851833844</v>
       </c>
       <c r="F10">
-        <v>1.487189161285912</v>
+        <v>1.660020152657395</v>
       </c>
       <c r="G10">
-        <v>0.1705437614423886</v>
+        <v>0.8118337718439648</v>
       </c>
       <c r="H10">
-        <v>0.1343586667919681</v>
+        <v>0.001473055147734659</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002905613341130042</v>
       </c>
       <c r="J10">
-        <v>0.02395116237096317</v>
+        <v>0.5688171628733443</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6288312918640528</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07905780032029597</v>
       </c>
       <c r="M10">
-        <v>1.686527478760624</v>
+        <v>1.510383638907513</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5434266563183456</v>
       </c>
       <c r="O10">
-        <v>0.5950241609359495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9505469177963413</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.842734363103148</v>
+        <v>1.80878600286897</v>
       </c>
       <c r="C11">
-        <v>0.8634453156551274</v>
+        <v>0.1432196558670853</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5732250454022889</v>
+        <v>0.1015024145726748</v>
       </c>
       <c r="F11">
-        <v>1.571267166384914</v>
+        <v>1.529769378933693</v>
       </c>
       <c r="G11">
-        <v>0.1805992276002044</v>
+        <v>0.7445848600695228</v>
       </c>
       <c r="H11">
-        <v>0.1342097403329561</v>
+        <v>0.01999730003516831</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003000975309952025</v>
       </c>
       <c r="J11">
-        <v>0.0245560707214274</v>
+        <v>0.5307042367432899</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5748313938043381</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09707155344282725</v>
       </c>
       <c r="M11">
-        <v>1.808734947956452</v>
+        <v>1.573218025282443</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4473543756574117</v>
       </c>
       <c r="O11">
-        <v>0.6163007759279111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9033903546109672</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.939056376658755</v>
+        <v>1.777824888609814</v>
       </c>
       <c r="C12">
-        <v>0.8829953390045659</v>
+        <v>0.1539086954176696</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5851841450465187</v>
+        <v>0.07960181943512623</v>
       </c>
       <c r="F12">
-        <v>1.603758773616391</v>
+        <v>1.399018712744549</v>
       </c>
       <c r="G12">
-        <v>0.1846236330703306</v>
+        <v>0.6838542445848503</v>
       </c>
       <c r="H12">
-        <v>0.134272704493938</v>
+        <v>0.05880737264354963</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002956937193737019</v>
       </c>
       <c r="J12">
-        <v>0.02479089633752452</v>
+        <v>0.4983954799397168</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5305044924466813</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.114163287683013</v>
       </c>
       <c r="M12">
-        <v>1.855164366238256</v>
+        <v>1.577074001627153</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3597477657391295</v>
       </c>
       <c r="O12">
-        <v>0.6250656934693239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8834324220796703</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.918303762999699</v>
+        <v>1.69719906103586</v>
       </c>
       <c r="C13">
-        <v>0.8787831263834676</v>
+        <v>0.1606471811972057</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5826018205276142</v>
+        <v>0.06042872360268881</v>
       </c>
       <c r="F13">
-        <v>1.596731059142002</v>
+        <v>1.256651751001243</v>
       </c>
       <c r="G13">
-        <v>0.1837469420104867</v>
+        <v>0.6209347051661354</v>
       </c>
       <c r="H13">
-        <v>0.134253689478669</v>
+        <v>0.1148795050254847</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003189795848964394</v>
       </c>
       <c r="J13">
-        <v>0.02474005993790129</v>
+        <v>0.4667579713969729</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4882228956895815</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1315052367199243</v>
       </c>
       <c r="M13">
-        <v>1.845157807642337</v>
+        <v>1.534399512371834</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2754026123813986</v>
       </c>
       <c r="O13">
-        <v>0.6231455225639735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8810481313935998</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.850655307748355</v>
+        <v>1.61790124246869</v>
       </c>
       <c r="C14">
-        <v>0.8650529228553694</v>
+        <v>0.1637513685767829</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5742059226164997</v>
+        <v>0.04883430790839682</v>
       </c>
       <c r="F14">
-        <v>1.573926816377295</v>
+        <v>1.152537235963294</v>
       </c>
       <c r="G14">
-        <v>0.1809258585220945</v>
+        <v>0.5759255792160616</v>
       </c>
       <c r="H14">
-        <v>0.1342124759584564</v>
+        <v>0.1645487135671573</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00359388589665155</v>
       </c>
       <c r="J14">
-        <v>0.02457527226086498</v>
+        <v>0.4448828803761415</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4595897338051458</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1441847044541618</v>
       </c>
       <c r="M14">
-        <v>1.812551536838541</v>
+        <v>1.483395786524795</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2197648883363144</v>
       </c>
       <c r="O14">
-        <v>0.6170073232708546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8878334874289511</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.809241300252609</v>
+        <v>1.58725546911171</v>
       </c>
       <c r="C15">
-        <v>0.8566478231797987</v>
+        <v>0.1637711700107047</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5690826040043504</v>
+        <v>0.04615129300578147</v>
       </c>
       <c r="F15">
-        <v>1.560045496050591</v>
+        <v>1.123639631524469</v>
       </c>
       <c r="G15">
-        <v>0.179226682745707</v>
+        <v>0.5636436315667765</v>
       </c>
       <c r="H15">
-        <v>0.1342030458265242</v>
+        <v>0.1772116364298597</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003896414167959605</v>
       </c>
       <c r="J15">
-        <v>0.02447509687248228</v>
+        <v>0.4392779095258845</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.452350050103643</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1469170864602276</v>
       </c>
       <c r="M15">
-        <v>1.792599779809692</v>
+        <v>1.460929035212502</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2060902554946011</v>
       </c>
       <c r="O15">
-        <v>0.6133415496557433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8923661890955152</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.572233681779892</v>
+        <v>1.489695766299718</v>
       </c>
       <c r="C16">
-        <v>0.8085536722607287</v>
+        <v>0.1544608388516053</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5400092240765773</v>
+        <v>0.04504291514028758</v>
       </c>
       <c r="F16">
-        <v>1.481782440774865</v>
+        <v>1.095471030120507</v>
       </c>
       <c r="G16">
-        <v>0.1699158209569376</v>
+        <v>0.5567890941208447</v>
       </c>
       <c r="H16">
-        <v>0.1343846120655883</v>
+        <v>0.165290743684622</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004896257092917189</v>
       </c>
       <c r="J16">
-        <v>0.02391241498763463</v>
+        <v>0.4397389889510919</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.453504899778256</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1394226810620722</v>
       </c>
       <c r="M16">
-        <v>1.678560918928284</v>
+        <v>1.368906253216267</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1974173436847266</v>
       </c>
       <c r="O16">
-        <v>0.593729378588705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.915460685270757</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.427093141979583</v>
+        <v>1.456704455578773</v>
       </c>
       <c r="C17">
-        <v>0.779108227651335</v>
+        <v>0.1457117192418025</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5224172547900992</v>
+        <v>0.04993273850080904</v>
       </c>
       <c r="F17">
-        <v>1.434867375368697</v>
+        <v>1.128330791604341</v>
       </c>
       <c r="G17">
-        <v>0.1645682272754811</v>
+        <v>0.5751523544481074</v>
       </c>
       <c r="H17">
-        <v>0.1346990519531417</v>
+        <v>0.1279869208612467</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005492231828776006</v>
       </c>
       <c r="J17">
-        <v>0.02357707407263732</v>
+        <v>0.4516212669008581</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4693350912501373</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1267294047991214</v>
       </c>
       <c r="M17">
-        <v>1.608847429544213</v>
+        <v>1.325462179486749</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.219136281752057</v>
       </c>
       <c r="O17">
-        <v>0.5828932591174407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9294999478947812</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.343695072248522</v>
+        <v>1.477423969784354</v>
       </c>
       <c r="C18">
-        <v>0.7621914474801486</v>
+        <v>0.1362645725684359</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5123837892968552</v>
+        <v>0.0623844676589691</v>
       </c>
       <c r="F18">
-        <v>1.408266885652907</v>
+        <v>1.221659841570087</v>
       </c>
       <c r="G18">
-        <v>0.1616200736634212</v>
+        <v>0.6199391164017243</v>
       </c>
       <c r="H18">
-        <v>0.1349517619167315</v>
+        <v>0.07522801146620139</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005392939509520467</v>
       </c>
       <c r="J18">
-        <v>0.02338769351474568</v>
+        <v>0.4759400908891678</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5018258028574998</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1096060897623019</v>
       </c>
       <c r="M18">
-        <v>1.56883305233923</v>
+        <v>1.319076601113494</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2737420607121237</v>
       </c>
       <c r="O18">
-        <v>0.5770808377492926</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9403799957647596</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.315471138011617</v>
+        <v>1.534970040189421</v>
       </c>
       <c r="C19">
-        <v>0.7564668627997264</v>
+        <v>0.1282111233558965</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5090008047741037</v>
+        <v>0.08286989230781217</v>
       </c>
       <c r="F19">
-        <v>1.399324563193588</v>
+        <v>1.357366329221293</v>
       </c>
       <c r="G19">
-        <v>0.1606432251894105</v>
+        <v>0.6810669405973471</v>
       </c>
       <c r="H19">
-        <v>0.135049410145335</v>
+        <v>0.02956644451907664</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005294810582962661</v>
       </c>
       <c r="J19">
-        <v>0.0233241623624032</v>
+        <v>0.507494611943315</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5444701072646723</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09317193200941176</v>
       </c>
       <c r="M19">
-        <v>1.55529845162782</v>
+        <v>1.341252612204812</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.359540538343083</v>
       </c>
       <c r="O19">
-        <v>0.5751832674304751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9519225643453584</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.44253477185714</v>
+        <v>1.70403821014321</v>
       </c>
       <c r="C20">
-        <v>0.7822406843989711</v>
+        <v>0.1224660150771371</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5242810554502597</v>
+        <v>0.1249243745635411</v>
       </c>
       <c r="F20">
-        <v>1.439821415827993</v>
+        <v>1.615323824844737</v>
       </c>
       <c r="G20">
-        <v>0.1651241393493237</v>
+        <v>0.7925663454565353</v>
       </c>
       <c r="H20">
-        <v>0.1346580816117537</v>
+        <v>0.001868054692994114</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004240951571084395</v>
       </c>
       <c r="J20">
-        <v>0.02361240694108346</v>
+        <v>0.5615783956112921</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6188189296649824</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07741330773432153</v>
       </c>
       <c r="M20">
-        <v>1.616259800634921</v>
+        <v>1.44605909125039</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5277987772225714</v>
       </c>
       <c r="O20">
-        <v>0.5840028695038484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.9632043728227764</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.87052051697674</v>
+        <v>1.92549752780721</v>
       </c>
       <c r="C21">
-        <v>0.8690847519267777</v>
+        <v>0.135034061339212</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5766679286651666</v>
+        <v>0.1411865728112787</v>
       </c>
       <c r="F21">
-        <v>1.580606742420699</v>
+        <v>1.75628340696197</v>
       </c>
       <c r="G21">
-        <v>0.1817484359941304</v>
+        <v>0.8439091789055055</v>
       </c>
       <c r="H21">
-        <v>0.1342212691668081</v>
+        <v>0.0005423448743087089</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002821051822384568</v>
       </c>
       <c r="J21">
-        <v>0.02462351491781334</v>
+        <v>0.5801684000210372</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.643235674524945</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08152591529885811</v>
       </c>
       <c r="M21">
-        <v>1.822124467601924</v>
+        <v>1.634327963598992</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6027392963617757</v>
       </c>
       <c r="O21">
-        <v>0.6187905476200513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9241798138042032</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.151216090270907</v>
+        <v>2.068657499579899</v>
       </c>
       <c r="C22">
-        <v>0.9260623938597519</v>
+        <v>0.1433667554552471</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.611762119270665</v>
+        <v>0.1497471747595505</v>
       </c>
       <c r="F22">
-        <v>1.676456556681757</v>
+        <v>1.841397805961748</v>
       </c>
       <c r="G22">
-        <v>0.193886205090962</v>
+        <v>0.8760831015215444</v>
       </c>
       <c r="H22">
-        <v>0.1346360355424139</v>
+        <v>0.0001436540029184918</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001929596161601488</v>
       </c>
       <c r="J22">
-        <v>0.02531810239312904</v>
+        <v>0.5916808868748831</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6582458042138128</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08469451711479792</v>
       </c>
       <c r="M22">
-        <v>1.957567614252838</v>
+        <v>1.756337185237186</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6429785831753776</v>
       </c>
       <c r="O22">
-        <v>0.6456837810521847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8987758602200309</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.001301316440561</v>
+        <v>1.995557304711497</v>
       </c>
       <c r="C23">
-        <v>0.8956298410122372</v>
+        <v>0.1384388506179448</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5929482600342055</v>
+        <v>0.1451709443744029</v>
       </c>
       <c r="F23">
-        <v>1.624927133241528</v>
+        <v>1.798935742763334</v>
       </c>
       <c r="G23">
-        <v>0.1872846925278395</v>
+        <v>0.8615748939828478</v>
       </c>
       <c r="H23">
-        <v>0.134347536383153</v>
+        <v>0.0003213821651806281</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002050219363397332</v>
       </c>
       <c r="J23">
-        <v>0.02494416553551915</v>
+        <v>0.5868812988271799</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6522979186015974</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08284473735513487</v>
       </c>
       <c r="M23">
-        <v>1.885188697592355</v>
+        <v>1.692145513341671</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6204872702593889</v>
       </c>
       <c r="O23">
-        <v>0.630928924390517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.913181930958487</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.435553472948243</v>
+        <v>1.713608323123083</v>
       </c>
       <c r="C24">
-        <v>0.7808244644568845</v>
+        <v>0.1208596612300568</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5234381818417759</v>
+        <v>0.1278919375795518</v>
       </c>
       <c r="F24">
-        <v>1.437580541200887</v>
+        <v>1.635175562614677</v>
       </c>
       <c r="G24">
-        <v>0.1648724197341238</v>
+        <v>0.8037321179371304</v>
       </c>
       <c r="H24">
-        <v>0.1346763808964724</v>
+        <v>0.00168306078991165</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003694725088606354</v>
       </c>
       <c r="J24">
-        <v>0.0235964223536449</v>
+        <v>0.5673272279763353</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6271247641184701</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0760762305268301</v>
       </c>
       <c r="M24">
-        <v>1.612908467433201</v>
+        <v>1.448282501384114</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5373285881179015</v>
       </c>
       <c r="O24">
-        <v>0.5834999190030032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9676062944533772</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.828353361715983</v>
+        <v>1.40998680938057</v>
       </c>
       <c r="C25">
-        <v>0.6577094341527641</v>
+        <v>0.1024347439502762</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4516601886310809</v>
+        <v>0.1093160852519439</v>
       </c>
       <c r="F25">
-        <v>1.249963541786229</v>
+        <v>1.462492809741775</v>
       </c>
       <c r="G25">
-        <v>0.1455092003568694</v>
+        <v>0.7443866164090593</v>
       </c>
       <c r="H25">
-        <v>0.137748085389056</v>
+        <v>0.00449229913874083</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006818964353506374</v>
       </c>
       <c r="J25">
-        <v>0.02227512726125269</v>
+        <v>0.5479891449745224</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6015258783757389</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06870334345997975</v>
       </c>
       <c r="M25">
-        <v>1.322304064344905</v>
+        <v>1.18661674889384</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4483003694319052</v>
       </c>
       <c r="O25">
-        <v>0.5481991817313911</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.028972329121892</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.194362698620637</v>
+        <v>1.11896285794063</v>
       </c>
       <c r="C2">
-        <v>0.08809949020021435</v>
+        <v>0.08926106169506909</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09564519755569378</v>
+        <v>0.09699026442094549</v>
       </c>
       <c r="F2">
-        <v>1.34564599131194</v>
+        <v>1.259099152364286</v>
       </c>
       <c r="G2">
-        <v>0.7096051924461477</v>
+        <v>0.6142312786658977</v>
       </c>
       <c r="H2">
-        <v>0.007562457913321524</v>
+        <v>0.006125301580142073</v>
       </c>
       <c r="I2">
-        <v>0.009334354072109807</v>
+        <v>0.006813962089626813</v>
       </c>
       <c r="J2">
-        <v>0.5384976289636114</v>
+        <v>0.5063752206745988</v>
       </c>
       <c r="K2">
-        <v>0.58899115751327</v>
+        <v>0.5134058334193021</v>
       </c>
       <c r="L2">
-        <v>0.06282846564324274</v>
+        <v>0.2243798433485189</v>
       </c>
       <c r="M2">
-        <v>0.9969461060509275</v>
+        <v>0.1633135306995896</v>
       </c>
       <c r="N2">
-        <v>0.3808005053086561</v>
+        <v>0.06318907376897798</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.980131707511589</v>
       </c>
       <c r="P2">
-        <v>1.07886433786793</v>
+        <v>0.4119248852570934</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.013262200380353</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.043512630852888</v>
+        <v>0.9803114496450007</v>
       </c>
       <c r="C3">
-        <v>0.07916164852353091</v>
+        <v>0.07843407788052303</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08638409777418588</v>
+        <v>0.08783746714172125</v>
       </c>
       <c r="F3">
-        <v>1.263719806710341</v>
+        <v>1.187254003866784</v>
       </c>
       <c r="G3">
-        <v>0.6834023191803027</v>
+        <v>0.5981320966292003</v>
       </c>
       <c r="H3">
-        <v>0.01024565544692644</v>
+        <v>0.008382409124716522</v>
       </c>
       <c r="I3">
-        <v>0.01204665751200418</v>
+        <v>0.008817667327299716</v>
       </c>
       <c r="J3">
-        <v>0.5308654955205014</v>
+        <v>0.4982429584734831</v>
       </c>
       <c r="K3">
-        <v>0.5781826255689353</v>
+        <v>0.507973524035954</v>
       </c>
       <c r="L3">
-        <v>0.05900522479281989</v>
+        <v>0.2270489158541835</v>
       </c>
       <c r="M3">
-        <v>0.8673251922646159</v>
+        <v>0.158115519632684</v>
       </c>
       <c r="N3">
-        <v>0.3366289489437264</v>
+        <v>0.05845485250155491</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8540285812390778</v>
       </c>
       <c r="P3">
-        <v>1.112505912309933</v>
+        <v>0.3640803625634845</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.045625857562503</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.950636223280128</v>
+        <v>0.8946938606583501</v>
       </c>
       <c r="C4">
-        <v>0.07374264777351414</v>
+        <v>0.07190330146142543</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08069136767667828</v>
+        <v>0.08221112809261655</v>
       </c>
       <c r="F4">
-        <v>1.213973026728596</v>
+        <v>1.143524856184172</v>
       </c>
       <c r="G4">
-        <v>0.6677407098305252</v>
+        <v>0.5886570337767694</v>
       </c>
       <c r="H4">
-        <v>0.01216682558468732</v>
+        <v>0.0100054545988003</v>
       </c>
       <c r="I4">
-        <v>0.01399124377442229</v>
+        <v>0.0102755343713512</v>
       </c>
       <c r="J4">
-        <v>0.5264683545666031</v>
+        <v>0.4932801487894523</v>
       </c>
       <c r="K4">
-        <v>0.5717496453506286</v>
+        <v>0.5047293173790806</v>
       </c>
       <c r="L4">
-        <v>0.05663296055346123</v>
+        <v>0.2286388491097355</v>
       </c>
       <c r="M4">
-        <v>0.7877562747329705</v>
+        <v>0.1555567220203429</v>
       </c>
       <c r="N4">
-        <v>0.3096239838108943</v>
+        <v>0.05554315627328776</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7764981528017643</v>
       </c>
       <c r="P4">
-        <v>1.133701516940155</v>
+        <v>0.3348763583712753</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.066056983944078</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9119144695225145</v>
+        <v>0.8589120204659935</v>
       </c>
       <c r="C5">
-        <v>0.07165992998379522</v>
+        <v>0.06939544751556781</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07837057930892044</v>
+        <v>0.07991769131815829</v>
       </c>
       <c r="F5">
-        <v>1.193058214427836</v>
+        <v>1.125060271284056</v>
       </c>
       <c r="G5">
-        <v>0.6607608131927805</v>
+        <v>0.5842590114372328</v>
       </c>
       <c r="H5">
-        <v>0.01302112761725699</v>
+        <v>0.01072874089316117</v>
       </c>
       <c r="I5">
-        <v>0.01494036643529073</v>
+        <v>0.01102473720328767</v>
       </c>
       <c r="J5">
-        <v>0.5243878093685055</v>
+        <v>0.4909218118461069</v>
       </c>
       <c r="K5">
-        <v>0.5686361615752169</v>
+        <v>0.5029426459112649</v>
       </c>
       <c r="L5">
-        <v>0.0556959571764164</v>
+        <v>0.2290467064014869</v>
       </c>
       <c r="M5">
-        <v>0.75509809660619</v>
+        <v>0.1545350976335271</v>
       </c>
       <c r="N5">
-        <v>0.2988890724169124</v>
+        <v>0.05439832848056625</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7446487144772505</v>
       </c>
       <c r="P5">
-        <v>1.142170490180623</v>
+        <v>0.323261474044827</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.074300577507862</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9044949957415156</v>
+        <v>0.8520239539336387</v>
       </c>
       <c r="C6">
-        <v>0.07145143353506711</v>
+        <v>0.06913673042088675</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07798665435810648</v>
+        <v>0.07953856554481575</v>
       </c>
       <c r="F6">
-        <v>1.188646727192037</v>
+        <v>1.121101949697078</v>
       </c>
       <c r="G6">
-        <v>0.65875363713441</v>
+        <v>0.5827604149484387</v>
       </c>
       <c r="H6">
-        <v>0.01317314027519267</v>
+        <v>0.01085759745085079</v>
       </c>
       <c r="I6">
-        <v>0.01521802253889515</v>
+        <v>0.01128327695948883</v>
       </c>
       <c r="J6">
-        <v>0.5236080941818955</v>
+        <v>0.4901117953394447</v>
       </c>
       <c r="K6">
-        <v>0.567461323209006</v>
+        <v>0.5020538396275569</v>
       </c>
       <c r="L6">
-        <v>0.05558474671814828</v>
+        <v>0.2288363410010703</v>
       </c>
       <c r="M6">
-        <v>0.7493930199437102</v>
+        <v>0.1542070489589644</v>
       </c>
       <c r="N6">
-        <v>0.2974067968102361</v>
+        <v>0.05426162025717574</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7390844959362255</v>
       </c>
       <c r="P6">
-        <v>1.143219084497549</v>
+        <v>0.3216363710205883</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.075411645272959</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9474132908196395</v>
+        <v>0.8910165440493358</v>
       </c>
       <c r="C7">
-        <v>0.07408824307453443</v>
+        <v>0.07200364828982941</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08066446493646851</v>
+        <v>0.08234684632039446</v>
       </c>
       <c r="F7">
-        <v>1.211105618337498</v>
+        <v>1.139603103937077</v>
       </c>
       <c r="G7">
-        <v>0.6653136943443343</v>
+        <v>0.5891688578665111</v>
       </c>
       <c r="H7">
-        <v>0.01219406896555723</v>
+        <v>0.01003577725457847</v>
       </c>
       <c r="I7">
-        <v>0.01430325552507128</v>
+        <v>0.01063309518202171</v>
       </c>
       <c r="J7">
-        <v>0.5252442041270058</v>
+        <v>0.487051610951255</v>
       </c>
       <c r="K7">
-        <v>0.5699039173902634</v>
+        <v>0.5023525550839771</v>
       </c>
       <c r="L7">
-        <v>0.0567434126091193</v>
+        <v>0.2275680113581231</v>
       </c>
       <c r="M7">
-        <v>0.7865427995222376</v>
+        <v>0.1548531009588814</v>
       </c>
       <c r="N7">
-        <v>0.3102966518753476</v>
+        <v>0.05575036478164463</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7740641327505102</v>
       </c>
       <c r="P7">
-        <v>1.132832152102774</v>
+        <v>0.3357501100512508</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.065103004407587</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.138786902552255</v>
+        <v>1.065733779742288</v>
       </c>
       <c r="C8">
-        <v>0.0855015146935969</v>
+        <v>0.08508550805050419</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09245880093877545</v>
+        <v>0.09438500914904679</v>
       </c>
       <c r="F8">
-        <v>1.313855914792072</v>
+        <v>1.226962520658091</v>
       </c>
       <c r="G8">
-        <v>0.6973960800457775</v>
+        <v>0.6147952259422453</v>
       </c>
       <c r="H8">
-        <v>0.008445997953402729</v>
+        <v>0.00688536887334279</v>
       </c>
       <c r="I8">
-        <v>0.0105676471646543</v>
+        <v>0.007888685340834201</v>
       </c>
       <c r="J8">
-        <v>0.5342300189595761</v>
+        <v>0.4855768027295255</v>
       </c>
       <c r="K8">
-        <v>0.5828422208964454</v>
+        <v>0.5069882115737414</v>
       </c>
       <c r="L8">
-        <v>0.06168174995213604</v>
+        <v>0.2233814926293256</v>
       </c>
       <c r="M8">
-        <v>0.9512065412206994</v>
+        <v>0.159920791392512</v>
       </c>
       <c r="N8">
-        <v>0.3666333576633747</v>
+        <v>0.06201905853637157</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9314574095800481</v>
       </c>
       <c r="P8">
-        <v>1.089120957824992</v>
+        <v>0.3971824082320694</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.02242041386855</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.517205158575081</v>
+        <v>1.411561841344934</v>
       </c>
       <c r="C9">
-        <v>0.10788987468149</v>
+        <v>0.1120921440859064</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1155602126855264</v>
+        <v>0.1173675186612009</v>
       </c>
       <c r="F9">
-        <v>1.524822079035019</v>
+        <v>1.410485756980449</v>
       </c>
       <c r="G9">
-        <v>0.7681707249667369</v>
+        <v>0.6625406352795267</v>
       </c>
       <c r="H9">
-        <v>0.003364433460842697</v>
+        <v>0.002644882202808785</v>
       </c>
       <c r="I9">
-        <v>0.00512443482669056</v>
+        <v>0.003852687442007507</v>
       </c>
       <c r="J9">
-        <v>0.5564018570662057</v>
+        <v>0.5029176483333373</v>
       </c>
       <c r="K9">
-        <v>0.6131610351845751</v>
+        <v>0.5224030750871549</v>
       </c>
       <c r="L9">
-        <v>0.07096325487417587</v>
+        <v>0.2172117727637293</v>
       </c>
       <c r="M9">
-        <v>1.276055836126858</v>
+        <v>0.1766535289514479</v>
       </c>
       <c r="N9">
-        <v>0.4767187533131079</v>
+        <v>0.07374766973147828</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.24550026201976</v>
       </c>
       <c r="P9">
-        <v>1.00947343280875</v>
+        <v>0.5169361986533829</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.9456988971583429</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.782851378127731</v>
+        <v>1.649831668896724</v>
       </c>
       <c r="C10">
-        <v>0.1260202120630538</v>
+        <v>0.1320376533111869</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1284752851833844</v>
+        <v>0.1311159357824074</v>
       </c>
       <c r="F10">
-        <v>1.660020152657395</v>
+        <v>1.519661015051909</v>
       </c>
       <c r="G10">
-        <v>0.8118337718439648</v>
+        <v>0.7072213416931419</v>
       </c>
       <c r="H10">
-        <v>0.001473055147734659</v>
+        <v>0.001151847925224381</v>
       </c>
       <c r="I10">
-        <v>0.002905613341130042</v>
+        <v>0.002388968794954316</v>
       </c>
       <c r="J10">
-        <v>0.5688171628733443</v>
+        <v>0.4840373282515031</v>
       </c>
       <c r="K10">
-        <v>0.6288312918640528</v>
+        <v>0.5240779648640768</v>
       </c>
       <c r="L10">
-        <v>0.07905780032029597</v>
+        <v>0.2088065598799034</v>
       </c>
       <c r="M10">
-        <v>1.510383638907513</v>
+        <v>0.1880469213223108</v>
       </c>
       <c r="N10">
-        <v>0.5434266563183456</v>
+        <v>0.08454025901086126</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.463978223604414</v>
       </c>
       <c r="P10">
-        <v>0.9505469177963413</v>
+        <v>0.5912466475283793</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8897011117110261</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.80878600286897</v>
+        <v>1.670809165200268</v>
       </c>
       <c r="C11">
-        <v>0.1432196558670853</v>
+        <v>0.1463114467275801</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1015024145726748</v>
+        <v>0.1054250033247648</v>
       </c>
       <c r="F11">
-        <v>1.529769378933693</v>
+        <v>1.384889964177447</v>
       </c>
       <c r="G11">
-        <v>0.7445848600695228</v>
+        <v>0.6818616280974368</v>
       </c>
       <c r="H11">
-        <v>0.01999730003516831</v>
+        <v>0.01972364097985135</v>
       </c>
       <c r="I11">
-        <v>0.003000975309952025</v>
+        <v>0.002759459454570568</v>
       </c>
       <c r="J11">
-        <v>0.5307042367432899</v>
+        <v>0.4034485546360216</v>
       </c>
       <c r="K11">
-        <v>0.5748313938043381</v>
+        <v>0.4711432133928</v>
       </c>
       <c r="L11">
-        <v>0.09707155344282725</v>
+        <v>0.1864119469084073</v>
       </c>
       <c r="M11">
-        <v>1.573218025282443</v>
+        <v>0.1718807998565168</v>
       </c>
       <c r="N11">
-        <v>0.4473543756574117</v>
+        <v>0.107446855994958</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.510191430725484</v>
       </c>
       <c r="P11">
-        <v>0.9033903546109672</v>
+        <v>0.4918606087391453</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8591905836531222</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.777824888609814</v>
+        <v>1.643803128139865</v>
       </c>
       <c r="C12">
-        <v>0.1539086954176696</v>
+        <v>0.1547884078366195</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07960181943512623</v>
+        <v>0.08354171091041351</v>
       </c>
       <c r="F12">
-        <v>1.399018712744549</v>
+        <v>1.260388233851998</v>
       </c>
       <c r="G12">
-        <v>0.6838542445848503</v>
+        <v>0.644007433285509</v>
       </c>
       <c r="H12">
-        <v>0.05880737264354963</v>
+        <v>0.05852633354790981</v>
       </c>
       <c r="I12">
-        <v>0.002956937193737019</v>
+        <v>0.002738298071416345</v>
       </c>
       <c r="J12">
-        <v>0.4983954799397168</v>
+        <v>0.3621517564748515</v>
       </c>
       <c r="K12">
-        <v>0.5305044924466813</v>
+        <v>0.4330583485287463</v>
       </c>
       <c r="L12">
-        <v>0.114163287683013</v>
+        <v>0.1721488446081452</v>
       </c>
       <c r="M12">
-        <v>1.577074001627153</v>
+        <v>0.1580247943397133</v>
       </c>
       <c r="N12">
-        <v>0.3597477657391295</v>
+        <v>0.1277844430917412</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.508142715007295</v>
       </c>
       <c r="P12">
-        <v>0.8834324220796703</v>
+        <v>0.3990816636158456</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8531407689412056</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.69719906103586</v>
+        <v>1.576002078595224</v>
       </c>
       <c r="C13">
-        <v>0.1606471811972057</v>
+        <v>0.1609354612994736</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06042872360268881</v>
+        <v>0.06344100859210045</v>
       </c>
       <c r="F13">
-        <v>1.256651751001243</v>
+        <v>1.134801900120564</v>
       </c>
       <c r="G13">
-        <v>0.6209347051661354</v>
+        <v>0.5852402905952516</v>
       </c>
       <c r="H13">
-        <v>0.1148795050254847</v>
+        <v>0.1145382281591196</v>
       </c>
       <c r="I13">
-        <v>0.003189795848964394</v>
+        <v>0.002876036809952964</v>
       </c>
       <c r="J13">
-        <v>0.4667579713969729</v>
+        <v>0.3478191513739262</v>
       </c>
       <c r="K13">
-        <v>0.4882228956895815</v>
+        <v>0.4023975756425457</v>
       </c>
       <c r="L13">
-        <v>0.1315052367199243</v>
+        <v>0.1620243880920462</v>
       </c>
       <c r="M13">
-        <v>1.534399512371834</v>
+        <v>0.1449338163678036</v>
       </c>
       <c r="N13">
-        <v>0.2754026123813986</v>
+        <v>0.1464706022507372</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.470930967598861</v>
       </c>
       <c r="P13">
-        <v>0.8810481313935998</v>
+        <v>0.3078251501167131</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8615984141234208</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.61790124246869</v>
+        <v>1.50945293696256</v>
       </c>
       <c r="C14">
-        <v>0.1637513685767829</v>
+        <v>0.1644312865883677</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04883430790839682</v>
+        <v>0.05099142302278636</v>
       </c>
       <c r="F14">
-        <v>1.152537235963294</v>
+        <v>1.046302361019158</v>
       </c>
       <c r="G14">
-        <v>0.5759255792160616</v>
+        <v>0.5361605103836666</v>
       </c>
       <c r="H14">
-        <v>0.1645487135671573</v>
+        <v>0.1641358899817931</v>
       </c>
       <c r="I14">
-        <v>0.00359388589665155</v>
+        <v>0.003166513438827678</v>
       </c>
       <c r="J14">
-        <v>0.4448828803761415</v>
+        <v>0.3473766606031035</v>
       </c>
       <c r="K14">
-        <v>0.4595897338051458</v>
+        <v>0.3837585124239133</v>
       </c>
       <c r="L14">
-        <v>0.1441847044541618</v>
+        <v>0.1564194748427745</v>
       </c>
       <c r="M14">
-        <v>1.483395786524795</v>
+        <v>0.1361156847840839</v>
       </c>
       <c r="N14">
-        <v>0.2197648883363144</v>
+        <v>0.1589921119727222</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.428629619619073</v>
       </c>
       <c r="P14">
-        <v>0.8878334874289511</v>
+        <v>0.2468995504455052</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8735725403700592</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.58725546911171</v>
+        <v>1.483621566493127</v>
       </c>
       <c r="C15">
-        <v>0.1637711700107047</v>
+        <v>0.1649216117633188</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04615129300578147</v>
+        <v>0.04802837574771424</v>
       </c>
       <c r="F15">
-        <v>1.123639631524469</v>
+        <v>1.022987886048554</v>
       </c>
       <c r="G15">
-        <v>0.5636436315667765</v>
+        <v>0.5202239948183092</v>
       </c>
       <c r="H15">
-        <v>0.1772116364298597</v>
+        <v>0.1767634926640369</v>
       </c>
       <c r="I15">
-        <v>0.003896414167959605</v>
+        <v>0.003431868678350547</v>
       </c>
       <c r="J15">
-        <v>0.4392779095258845</v>
+        <v>0.3511508269894108</v>
       </c>
       <c r="K15">
-        <v>0.452350050103643</v>
+        <v>0.379868493952884</v>
       </c>
       <c r="L15">
-        <v>0.1469170864602276</v>
+        <v>0.1554930304086017</v>
       </c>
       <c r="M15">
-        <v>1.460929035212502</v>
+        <v>0.1338845727083928</v>
       </c>
       <c r="N15">
-        <v>0.2060902554946011</v>
+        <v>0.1612468594858996</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.410378444038031</v>
       </c>
       <c r="P15">
-        <v>0.8923661890955152</v>
+        <v>0.2316892212711252</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8785291235082724</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.489695766299718</v>
+        <v>1.400585835901381</v>
       </c>
       <c r="C16">
-        <v>0.1544608388516053</v>
+        <v>0.1584372019999734</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04504291514028758</v>
+        <v>0.04619812556461689</v>
       </c>
       <c r="F16">
-        <v>1.095471030120507</v>
+        <v>1.010259819115404</v>
       </c>
       <c r="G16">
-        <v>0.5567890941208447</v>
+        <v>0.4916338037274812</v>
       </c>
       <c r="H16">
-        <v>0.165290743684622</v>
+        <v>0.1646568772283814</v>
       </c>
       <c r="I16">
-        <v>0.004896257092917189</v>
+        <v>0.004148750118229572</v>
       </c>
       <c r="J16">
-        <v>0.4397389889510919</v>
+        <v>0.3887088323401073</v>
       </c>
       <c r="K16">
-        <v>0.453504899778256</v>
+        <v>0.3886710683343395</v>
       </c>
       <c r="L16">
-        <v>0.1394226810620722</v>
+        <v>0.1607607373781441</v>
       </c>
       <c r="M16">
-        <v>1.368906253216267</v>
+        <v>0.1340722214764831</v>
       </c>
       <c r="N16">
-        <v>0.1974173436847266</v>
+        <v>0.1502543896806046</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.335749161305614</v>
       </c>
       <c r="P16">
-        <v>0.915460685270757</v>
+        <v>0.2204525647174336</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8946625280652043</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.456704455578773</v>
+        <v>1.371087852887996</v>
       </c>
       <c r="C17">
-        <v>0.1457117192418025</v>
+        <v>0.1509259464166348</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04993273850080904</v>
+        <v>0.05089205744429037</v>
       </c>
       <c r="F17">
-        <v>1.128330791604341</v>
+        <v>1.045929296562917</v>
       </c>
       <c r="G17">
-        <v>0.5751523544481074</v>
+        <v>0.4981446402780705</v>
       </c>
       <c r="H17">
-        <v>0.1279869208612467</v>
+        <v>0.1272467075254156</v>
       </c>
       <c r="I17">
-        <v>0.005492231828776006</v>
+        <v>0.004589476874225618</v>
       </c>
       <c r="J17">
-        <v>0.4516212669008581</v>
+        <v>0.4156650043122951</v>
       </c>
       <c r="K17">
-        <v>0.4693350912501373</v>
+        <v>0.4048257785671048</v>
       </c>
       <c r="L17">
-        <v>0.1267294047991214</v>
+        <v>0.1679553158274985</v>
       </c>
       <c r="M17">
-        <v>1.325462179486749</v>
+        <v>0.1384476446975391</v>
       </c>
       <c r="N17">
-        <v>0.219136281752057</v>
+        <v>0.1355739067700199</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.298976477631612</v>
       </c>
       <c r="P17">
-        <v>0.9294999478947812</v>
+        <v>0.2429235775509397</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9023246485934457</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.477423969784354</v>
+        <v>1.387656177871747</v>
       </c>
       <c r="C18">
-        <v>0.1362645725684359</v>
+        <v>0.142182207907311</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0623844676589691</v>
+        <v>0.06334697850646798</v>
       </c>
       <c r="F18">
-        <v>1.221659841570087</v>
+        <v>1.133571727233331</v>
       </c>
       <c r="G18">
-        <v>0.6199391164017243</v>
+        <v>0.5317379604141621</v>
       </c>
       <c r="H18">
-        <v>0.07522801146620139</v>
+        <v>0.07446760474481096</v>
       </c>
       <c r="I18">
-        <v>0.005392939509520467</v>
+        <v>0.004402754381885643</v>
       </c>
       <c r="J18">
-        <v>0.4759400908891678</v>
+        <v>0.443661393977834</v>
       </c>
       <c r="K18">
-        <v>0.5018258028574998</v>
+        <v>0.4322914965398112</v>
       </c>
       <c r="L18">
-        <v>0.1096060897623019</v>
+        <v>0.1788782640149762</v>
       </c>
       <c r="M18">
-        <v>1.319076601113494</v>
+        <v>0.1478996566530597</v>
       </c>
       <c r="N18">
-        <v>0.2737420607121237</v>
+        <v>0.1169794813298779</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.293871661790376</v>
       </c>
       <c r="P18">
-        <v>0.9403799957647596</v>
+        <v>0.3010174864956383</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9053384706813841</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.534970040189421</v>
+        <v>1.435961200163831</v>
       </c>
       <c r="C19">
-        <v>0.1282111233558965</v>
+        <v>0.1346920240556528</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08286989230781217</v>
+        <v>0.0839563383188846</v>
       </c>
       <c r="F19">
-        <v>1.357366329221293</v>
+        <v>1.257757485929716</v>
       </c>
       <c r="G19">
-        <v>0.6810669405973471</v>
+        <v>0.5808696249829808</v>
       </c>
       <c r="H19">
-        <v>0.02956644451907664</v>
+        <v>0.02887444832654751</v>
       </c>
       <c r="I19">
-        <v>0.005294810582962661</v>
+        <v>0.004393246014777752</v>
       </c>
       <c r="J19">
-        <v>0.507494611943315</v>
+        <v>0.4722801275472932</v>
       </c>
       <c r="K19">
-        <v>0.5444701072646723</v>
+        <v>0.4663611960045699</v>
       </c>
       <c r="L19">
-        <v>0.09317193200941176</v>
+        <v>0.1917999801011767</v>
       </c>
       <c r="M19">
-        <v>1.341252612204812</v>
+        <v>0.1605271357999207</v>
       </c>
       <c r="N19">
-        <v>0.359540538343083</v>
+        <v>0.09921449791286108</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.314177525854006</v>
       </c>
       <c r="P19">
-        <v>0.9519225643453584</v>
+        <v>0.392515225762466</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9076880687553075</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.70403821014321</v>
+        <v>1.581199629774005</v>
       </c>
       <c r="C20">
-        <v>0.1224660150771371</v>
+        <v>0.1293183716772006</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1249243745635411</v>
+        <v>0.1267533306577207</v>
       </c>
       <c r="F20">
-        <v>1.615323824844737</v>
+        <v>1.486824948934128</v>
       </c>
       <c r="G20">
-        <v>0.7925663454565353</v>
+        <v>0.6785516817944455</v>
       </c>
       <c r="H20">
-        <v>0.001868054692994114</v>
+        <v>0.001447073232360374</v>
       </c>
       <c r="I20">
-        <v>0.004240951571084395</v>
+        <v>0.003688578340844018</v>
       </c>
       <c r="J20">
-        <v>0.5615783956112921</v>
+        <v>0.5023451163421839</v>
       </c>
       <c r="K20">
-        <v>0.6188189296649824</v>
+        <v>0.5211199829564777</v>
       </c>
       <c r="L20">
-        <v>0.07741330773432153</v>
+        <v>0.2100796706306518</v>
       </c>
       <c r="M20">
-        <v>1.44605909125039</v>
+        <v>0.1839283824057993</v>
       </c>
       <c r="N20">
-        <v>0.5277987772225714</v>
+        <v>0.08197530930850405</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.408660946069602</v>
       </c>
       <c r="P20">
-        <v>0.9632043728227764</v>
+        <v>0.5728525183849058</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9035386464975741</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.92549752780721</v>
+        <v>1.766251488474495</v>
       </c>
       <c r="C21">
-        <v>0.135034061339212</v>
+        <v>0.1374894585969599</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1411865728112787</v>
+        <v>0.147001308327674</v>
       </c>
       <c r="F21">
-        <v>1.75628340696197</v>
+        <v>1.580976863900332</v>
       </c>
       <c r="G21">
-        <v>0.8439091789055055</v>
+        <v>0.7825543903677499</v>
       </c>
       <c r="H21">
-        <v>0.0005423448743087089</v>
+        <v>0.0003924660244774003</v>
       </c>
       <c r="I21">
-        <v>0.002821051822384568</v>
+        <v>0.002767314377750019</v>
       </c>
       <c r="J21">
-        <v>0.5801684000210372</v>
+        <v>0.4147092682203777</v>
       </c>
       <c r="K21">
-        <v>0.643235674524945</v>
+        <v>0.5188509343047798</v>
       </c>
       <c r="L21">
-        <v>0.08152591529885811</v>
+        <v>0.2025873355955028</v>
       </c>
       <c r="M21">
-        <v>1.634327963598992</v>
+        <v>0.1918403816272587</v>
       </c>
       <c r="N21">
-        <v>0.6027392963617757</v>
+        <v>0.08946220521643156</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.55897739338775</v>
       </c>
       <c r="P21">
-        <v>0.9241798138042032</v>
+        <v>0.6593991761020703</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8605927091160583</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.068657499579899</v>
+        <v>1.884611350358455</v>
       </c>
       <c r="C22">
-        <v>0.1433667554552471</v>
+        <v>0.1425276235364947</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1497471747595505</v>
+        <v>0.1585456788415094</v>
       </c>
       <c r="F22">
-        <v>1.841397805961748</v>
+        <v>1.633908990317451</v>
       </c>
       <c r="G22">
-        <v>0.8760831015215444</v>
+        <v>0.8579411789157376</v>
       </c>
       <c r="H22">
-        <v>0.0001436540029184918</v>
+        <v>9.434671309094256E-05</v>
       </c>
       <c r="I22">
-        <v>0.001929596161601488</v>
+        <v>0.002032814285112927</v>
       </c>
       <c r="J22">
-        <v>0.5916808868748831</v>
+        <v>0.3612870092569693</v>
       </c>
       <c r="K22">
-        <v>0.6582458042138128</v>
+        <v>0.5156150481476871</v>
       </c>
       <c r="L22">
-        <v>0.08469451711479792</v>
+        <v>0.1972142133644645</v>
       </c>
       <c r="M22">
-        <v>1.756337185237186</v>
+        <v>0.1966203680027263</v>
       </c>
       <c r="N22">
-        <v>0.6429785831753776</v>
+        <v>0.09516038899040069</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.653732159924147</v>
       </c>
       <c r="P22">
-        <v>0.8987758602200309</v>
+        <v>0.707193251286057</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8333852695225241</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.995557304711497</v>
+        <v>1.826325083971881</v>
       </c>
       <c r="C23">
-        <v>0.1384388506179448</v>
+        <v>0.1400874273730039</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1451709443744029</v>
+        <v>0.1518912501548613</v>
       </c>
       <c r="F23">
-        <v>1.798935742763334</v>
+        <v>1.611673893871895</v>
       </c>
       <c r="G23">
-        <v>0.8615748939828478</v>
+        <v>0.8118182190904406</v>
       </c>
       <c r="H23">
-        <v>0.0003213821651806281</v>
+        <v>0.0002237852769846338</v>
       </c>
       <c r="I23">
-        <v>0.002050219363397332</v>
+        <v>0.002013933918397548</v>
       </c>
       <c r="J23">
-        <v>0.5868812988271799</v>
+        <v>0.399147047584556</v>
       </c>
       <c r="K23">
-        <v>0.6522979186015974</v>
+        <v>0.5209046963907511</v>
       </c>
       <c r="L23">
-        <v>0.08284473735513487</v>
+        <v>0.2012736249695166</v>
       </c>
       <c r="M23">
-        <v>1.692145513341671</v>
+        <v>0.195515151965111</v>
       </c>
       <c r="N23">
-        <v>0.6204872702593889</v>
+        <v>0.09165238758889416</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.607567320823989</v>
       </c>
       <c r="P23">
-        <v>0.913181930958487</v>
+        <v>0.6800461565404419</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.848528277994498</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.713608323123083</v>
+        <v>1.589687686142412</v>
       </c>
       <c r="C24">
-        <v>0.1208596612300568</v>
+        <v>0.1276345202906839</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1278919375795518</v>
+        <v>0.1297159094334823</v>
       </c>
       <c r="F24">
-        <v>1.635175562614677</v>
+        <v>1.505247795999253</v>
       </c>
       <c r="G24">
-        <v>0.8037321179371304</v>
+        <v>0.6875897488747569</v>
       </c>
       <c r="H24">
-        <v>0.00168306078991165</v>
+        <v>0.001271848567268252</v>
       </c>
       <c r="I24">
-        <v>0.003694725088606354</v>
+        <v>0.003049885006877417</v>
       </c>
       <c r="J24">
-        <v>0.5673272279763353</v>
+        <v>0.5081145331802333</v>
       </c>
       <c r="K24">
-        <v>0.6271247641184701</v>
+        <v>0.5280820276120224</v>
       </c>
       <c r="L24">
-        <v>0.0760762305268301</v>
+        <v>0.2127297383872424</v>
       </c>
       <c r="M24">
-        <v>1.448282501384114</v>
+        <v>0.1864926680879329</v>
       </c>
       <c r="N24">
-        <v>0.5373285881179015</v>
+        <v>0.08033563215139594</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.41085702249984</v>
       </c>
       <c r="P24">
-        <v>0.9676062944533772</v>
+        <v>0.5830030537936324</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.905982351081545</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.40998680938057</v>
+        <v>1.314570539938643</v>
       </c>
       <c r="C25">
-        <v>0.1024347439502762</v>
+        <v>0.1058957263592504</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1093160852519439</v>
+        <v>0.1109226036175741</v>
       </c>
       <c r="F25">
-        <v>1.462492809741775</v>
+        <v>1.357772113401637</v>
       </c>
       <c r="G25">
-        <v>0.7443866164090593</v>
+        <v>0.641539760392277</v>
       </c>
       <c r="H25">
-        <v>0.00449229913874083</v>
+        <v>0.003573092329788752</v>
       </c>
       <c r="I25">
-        <v>0.006818964353506374</v>
+        <v>0.005287081889969514</v>
       </c>
       <c r="J25">
-        <v>0.5479891449745224</v>
+        <v>0.5032203240570112</v>
       </c>
       <c r="K25">
-        <v>0.6015258783757389</v>
+        <v>0.5163382853342</v>
       </c>
       <c r="L25">
-        <v>0.06870334345997975</v>
+        <v>0.2182182025304549</v>
       </c>
       <c r="M25">
-        <v>1.18661674889384</v>
+        <v>0.1709281767034163</v>
       </c>
       <c r="N25">
-        <v>0.4483003694319052</v>
+        <v>0.07074849335996802</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.160989802276845</v>
       </c>
       <c r="P25">
-        <v>1.028972329121892</v>
+        <v>0.4855765165110739</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9653987909701378</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
